--- a/output/599060e9-8b46-46ec-87b9-c79cde8a82b7/599060e9-8b46-46ec-87b9-c79cde8a82b7_notes_standard_cropped_df.xlsx
+++ b/output/599060e9-8b46-46ec-87b9-c79cde8a82b7/599060e9-8b46-46ec-87b9-c79cde8a82b7_notes_standard_cropped_df.xlsx
@@ -7,26 +7,32 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="783d1f36-c06c-3414-a" sheetId="1" r:id="rId1"/>
-    <sheet name="6354e3c7-4619-3a07-b" sheetId="2" r:id="rId2"/>
-    <sheet name="09af3f09-68b9-3555-9" sheetId="3" r:id="rId3"/>
-    <sheet name="e3601430-2dd6-3395-9" sheetId="4" r:id="rId4"/>
-    <sheet name="bb79b34d-1e9c-34e4-a" sheetId="5" r:id="rId5"/>
-    <sheet name="24662bf7-9672-32e9-9" sheetId="6" r:id="rId6"/>
-    <sheet name="2307c038-33fd-3bed-8" sheetId="7" r:id="rId7"/>
-    <sheet name="6bafd8f6-8a94-32ee-9" sheetId="8" r:id="rId8"/>
-    <sheet name="65990df0-8285-3b32-8" sheetId="9" r:id="rId9"/>
-    <sheet name="8a5d8593-402f-3237-9" sheetId="10" r:id="rId10"/>
-    <sheet name="85574d29-1138-3d46-a" sheetId="11" r:id="rId11"/>
-    <sheet name="e8b583fe-7a0d-3304-9" sheetId="12" r:id="rId12"/>
-    <sheet name="dfb38738-8ae6-3592-8" sheetId="13" r:id="rId13"/>
+    <sheet name="6__783d1f36-c06c-341" sheetId="1" r:id="rId1"/>
+    <sheet name="7__783d1f36-c06c-341" sheetId="2" r:id="rId2"/>
+    <sheet name="8__783d1f36-c06c-341" sheetId="3" r:id="rId3"/>
+    <sheet name="9__6354e3c7-4619-3a0" sheetId="4" r:id="rId4"/>
+    <sheet name="11__09af3f09-68b9-35" sheetId="5" r:id="rId5"/>
+    <sheet name="11__e3601430-2dd6-33" sheetId="6" r:id="rId6"/>
+    <sheet name="11__bb79b34d-1e9c-34" sheetId="7" r:id="rId7"/>
+    <sheet name="12__24662bf7-9672-32" sheetId="8" r:id="rId8"/>
+    <sheet name="16__2307c038-33fd-3b" sheetId="9" r:id="rId9"/>
+    <sheet name="16__6bafd8f6-8a94-32" sheetId="10" r:id="rId10"/>
+    <sheet name="17__65990df0-8285-3b" sheetId="11" r:id="rId11"/>
+    <sheet name="15__2307c038-33fd-3b" sheetId="12" r:id="rId12"/>
+    <sheet name="18__8a5d8593-402f-32" sheetId="13" r:id="rId13"/>
+    <sheet name="19__85574d29-1138-3d" sheetId="14" r:id="rId14"/>
+    <sheet name="4_1_e8b583fe-7a0d-33" sheetId="15" r:id="rId15"/>
+    <sheet name="4_2_e8b583fe-7a0d-33" sheetId="16" r:id="rId16"/>
+    <sheet name="4_3_e8b583fe-7a0d-33" sheetId="17" r:id="rId17"/>
+    <sheet name="4_4_dfb38738-8ae6-35" sheetId="18" r:id="rId18"/>
+    <sheet name="4_5_dfb38738-8ae6-35" sheetId="19" r:id="rId19"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1057" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="239">
   <si>
     <t>line_item_0</t>
   </si>
@@ -46,6 +52,51 @@
     <t>year</t>
   </si>
   <si>
+    <t>Cash at bank and on hand</t>
+  </si>
+  <si>
+    <t>Cash at banks earns interest at floating rates based on daily bank deposit rates.</t>
+  </si>
+  <si>
+    <t>19589</t>
+  </si>
+  <si>
+    <t>28259</t>
+  </si>
+  <si>
+    <t>$000</t>
+  </si>
+  <si>
+    <t>2020</t>
+  </si>
+  <si>
+    <t>2019</t>
+  </si>
+  <si>
+    <t>GST receivable</t>
+  </si>
+  <si>
+    <t>Related party receivables (Note 20)</t>
+  </si>
+  <si>
+    <t>1697</t>
+  </si>
+  <si>
+    <t>11927</t>
+  </si>
+  <si>
+    <t>13624</t>
+  </si>
+  <si>
+    <t>1390</t>
+  </si>
+  <si>
+    <t>10609</t>
+  </si>
+  <si>
+    <t>11999</t>
+  </si>
+  <si>
     <t>Raw materials</t>
   </si>
   <si>
@@ -70,15 +121,6 @@
     <t>26953</t>
   </si>
   <si>
-    <t>$000</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
@@ -352,6 +394,153 @@
     <t>Total</t>
   </si>
   <si>
+    <t>Bank borrowings</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>facilities</t>
+  </si>
+  <si>
+    <t>Utilised</t>
+  </si>
+  <si>
+    <t>Balance at 31 December</t>
+  </si>
+  <si>
+    <t>bank guarantees</t>
+  </si>
+  <si>
+    <t>52100</t>
+  </si>
+  <si>
+    <t>3273</t>
+  </si>
+  <si>
+    <t>48827</t>
+  </si>
+  <si>
+    <t>13500</t>
+  </si>
+  <si>
+    <t>1023</t>
+  </si>
+  <si>
+    <t>47077</t>
+  </si>
+  <si>
+    <t>Multi-option facilities</t>
+  </si>
+  <si>
+    <t>Bank guarantee facilities</t>
+  </si>
+  <si>
+    <t>Arising during the year</t>
+  </si>
+  <si>
+    <t>Unwinding of discount</t>
+  </si>
+  <si>
+    <t>At31 December 2020</t>
+  </si>
+  <si>
+    <t>4343</t>
+  </si>
+  <si>
+    <t>541</t>
+  </si>
+  <si>
+    <t>4884</t>
+  </si>
+  <si>
+    <t>4846</t>
+  </si>
+  <si>
+    <t>38</t>
+  </si>
+  <si>
+    <t>3725</t>
+  </si>
+  <si>
+    <t>159</t>
+  </si>
+  <si>
+    <t>3884</t>
+  </si>
+  <si>
+    <t>865</t>
+  </si>
+  <si>
+    <t>(518)</t>
+  </si>
+  <si>
+    <t>347</t>
+  </si>
+  <si>
+    <t>4806</t>
+  </si>
+  <si>
+    <t>36032</t>
+  </si>
+  <si>
+    <t>(336)</t>
+  </si>
+  <si>
+    <t>40502</t>
+  </si>
+  <si>
+    <t>6983</t>
+  </si>
+  <si>
+    <t>1286</t>
+  </si>
+  <si>
+    <t>8269</t>
+  </si>
+  <si>
+    <t>729</t>
+  </si>
+  <si>
+    <t>7540</t>
+  </si>
+  <si>
+    <t>19857</t>
+  </si>
+  <si>
+    <t>38883</t>
+  </si>
+  <si>
+    <t>(854)</t>
+  </si>
+  <si>
+    <t>57886</t>
+  </si>
+  <si>
+    <t>9459</t>
+  </si>
+  <si>
+    <t>48427</t>
+  </si>
+  <si>
+    <t>Employee benefits</t>
+  </si>
+  <si>
+    <t>Workers compensation</t>
+  </si>
+  <si>
+    <t>Defined Benefit</t>
+  </si>
+  <si>
+    <t>Provision for asset retirement obligation</t>
+  </si>
+  <si>
+    <t>Provision for carbon dust and other</t>
+  </si>
+  <si>
+    <t>Totals</t>
+  </si>
+  <si>
     <t>Trade and other payables</t>
   </si>
   <si>
@@ -379,150 +568,6 @@
     <t>3895</t>
   </si>
   <si>
-    <t>facilities</t>
-  </si>
-  <si>
-    <t>Utilised</t>
-  </si>
-  <si>
-    <t>Balance at 31 December</t>
-  </si>
-  <si>
-    <t>bank guarantees</t>
-  </si>
-  <si>
-    <t>52100</t>
-  </si>
-  <si>
-    <t>3273</t>
-  </si>
-  <si>
-    <t>48827</t>
-  </si>
-  <si>
-    <t>13500</t>
-  </si>
-  <si>
-    <t>4000</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>47077</t>
-  </si>
-  <si>
-    <t>Multi-option facilities</t>
-  </si>
-  <si>
-    <t>Bank guarantee facilities</t>
-  </si>
-  <si>
-    <t>Arising during the year</t>
-  </si>
-  <si>
-    <t>Unwinding of discount</t>
-  </si>
-  <si>
-    <t>At31 December 2020</t>
-  </si>
-  <si>
-    <t>4343</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>4884</t>
-  </si>
-  <si>
-    <t>4846</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3725</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>3884</t>
-  </si>
-  <si>
-    <t>865</t>
-  </si>
-  <si>
-    <t>(518)</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>4806</t>
-  </si>
-  <si>
-    <t>36032</t>
-  </si>
-  <si>
-    <t>(336)</t>
-  </si>
-  <si>
-    <t>40502</t>
-  </si>
-  <si>
-    <t>6983</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>8269</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>7540</t>
-  </si>
-  <si>
-    <t>19857</t>
-  </si>
-  <si>
-    <t>38883</t>
-  </si>
-  <si>
-    <t>(854)</t>
-  </si>
-  <si>
-    <t>57886</t>
-  </si>
-  <si>
-    <t>9459</t>
-  </si>
-  <si>
-    <t>48427</t>
-  </si>
-  <si>
-    <t>Employee benefits</t>
-  </si>
-  <si>
-    <t>Workers compensation</t>
-  </si>
-  <si>
-    <t>Defined Benefit</t>
-  </si>
-  <si>
-    <t>Provision for asset retirement obligation</t>
-  </si>
-  <si>
-    <t>Provision for carbon dust and other</t>
-  </si>
-  <si>
-    <t>Totals</t>
-  </si>
-  <si>
     <t>155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
   </si>
   <si>
@@ -589,6 +634,57 @@
     <t>(9,032)</t>
   </si>
   <si>
+    <t>Type of goods</t>
+  </si>
+  <si>
+    <t>Sale of goods</t>
+  </si>
+  <si>
+    <t>Total revenue from contracts with customers</t>
+  </si>
+  <si>
+    <t>Geographical markets</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>Australia</t>
+  </si>
+  <si>
+    <t>Timing of revenue recognition</t>
+  </si>
+  <si>
+    <t>Goods transferred at a point in time</t>
+  </si>
+  <si>
+    <t>214911</t>
+  </si>
+  <si>
+    <t>190814</t>
+  </si>
+  <si>
+    <t>24097</t>
+  </si>
+  <si>
+    <t>229785</t>
+  </si>
+  <si>
+    <t>197789</t>
+  </si>
+  <si>
+    <t>31996</t>
+  </si>
+  <si>
+    <t>Commission revenue</t>
+  </si>
+  <si>
+    <t>775</t>
+  </si>
+  <si>
+    <t>780</t>
+  </si>
+  <si>
     <t>Government grants</t>
   </si>
   <si>
@@ -623,6 +719,15 @@
   </si>
   <si>
     <t>10144</t>
+  </si>
+  <si>
+    <t>Bank interest</t>
+  </si>
+  <si>
+    <t>60</t>
+  </si>
+  <si>
+    <t>170</t>
   </si>
   <si>
     <t>Interest expenses</t>
@@ -1001,7 +1106,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1035,10 +1140,10 @@
         <v>8</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -1048,78 +1153,50 @@
       <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="C3" t="s">
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4" t="s">
         <v>9</v>
       </c>
-      <c r="D3" t="s">
-        <v>14</v>
-      </c>
-      <c r="E3" t="s">
-        <v>15</v>
-      </c>
-      <c r="F3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="C4" t="s">
-        <v>10</v>
-      </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F4">
-        <v>2020</v>
+        <v>2019</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>6</v>
-      </c>
-      <c r="C5" t="s">
-        <v>11</v>
+        <v>7</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C6" t="s">
-        <v>12</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>16</v>
-      </c>
-      <c r="F6">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="C7" t="s">
-        <v>13</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F7">
         <v>2019</v>
       </c>
     </row>
@@ -1129,6 +1206,1031 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:H17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:8">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8">
+      <c r="A2" t="s">
+        <v>122</v>
+      </c>
+      <c r="B2" t="s">
+        <v>122</v>
+      </c>
+      <c r="D2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" t="s">
+        <v>132</v>
+      </c>
+      <c r="G2" t="s">
+        <v>11</v>
+      </c>
+      <c r="H2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8">
+      <c r="A3" t="s">
+        <v>123</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" t="s">
+        <v>132</v>
+      </c>
+      <c r="G3" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8">
+      <c r="A4" t="s">
+        <v>123</v>
+      </c>
+      <c r="B4" t="s">
+        <v>125</v>
+      </c>
+      <c r="D4" t="s">
+        <v>127</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" t="s">
+        <v>132</v>
+      </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
+      <c r="H4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8">
+      <c r="A5" t="s">
+        <v>124</v>
+      </c>
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+      <c r="D5" t="s">
+        <v>128</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" t="s">
+        <v>132</v>
+      </c>
+      <c r="G5" t="s">
+        <v>11</v>
+      </c>
+      <c r="H5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8">
+      <c r="A6" t="s">
+        <v>122</v>
+      </c>
+      <c r="B6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D6" t="s">
+        <v>129</v>
+      </c>
+      <c r="E6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F6" t="s">
+        <v>133</v>
+      </c>
+      <c r="G6" t="s">
+        <v>11</v>
+      </c>
+      <c r="H6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8">
+      <c r="A7" t="s">
+        <v>123</v>
+      </c>
+      <c r="E7" t="s">
+        <v>10</v>
+      </c>
+      <c r="F7" t="s">
+        <v>133</v>
+      </c>
+      <c r="G7" t="s">
+        <v>11</v>
+      </c>
+      <c r="H7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8">
+      <c r="A8" t="s">
+        <v>123</v>
+      </c>
+      <c r="B8" t="s">
+        <v>125</v>
+      </c>
+      <c r="D8" t="s">
+        <v>129</v>
+      </c>
+      <c r="E8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" t="s">
+        <v>133</v>
+      </c>
+      <c r="G8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" t="s">
+        <v>124</v>
+      </c>
+      <c r="B9" t="s">
+        <v>124</v>
+      </c>
+      <c r="E9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F9" t="s">
+        <v>133</v>
+      </c>
+      <c r="G9" t="s">
+        <v>11</v>
+      </c>
+      <c r="H9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" t="s">
+        <v>122</v>
+      </c>
+      <c r="D10" t="s">
+        <v>126</v>
+      </c>
+      <c r="E10" t="s">
+        <v>10</v>
+      </c>
+      <c r="F10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G10" t="s">
+        <v>12</v>
+      </c>
+      <c r="H10">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8">
+      <c r="A11" t="s">
+        <v>123</v>
+      </c>
+      <c r="D11" t="s">
+        <v>121</v>
+      </c>
+      <c r="E11" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" t="s">
+        <v>132</v>
+      </c>
+      <c r="G11" t="s">
+        <v>12</v>
+      </c>
+      <c r="H11">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8">
+      <c r="A12" t="s">
+        <v>123</v>
+      </c>
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E12" t="s">
+        <v>10</v>
+      </c>
+      <c r="F12" t="s">
+        <v>132</v>
+      </c>
+      <c r="G12" t="s">
+        <v>12</v>
+      </c>
+      <c r="H12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8">
+      <c r="A13" t="s">
+        <v>124</v>
+      </c>
+      <c r="B13" t="s">
+        <v>124</v>
+      </c>
+      <c r="D13" t="s">
+        <v>131</v>
+      </c>
+      <c r="E13" t="s">
+        <v>10</v>
+      </c>
+      <c r="F13" t="s">
+        <v>132</v>
+      </c>
+      <c r="G13" t="s">
+        <v>12</v>
+      </c>
+      <c r="H13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8">
+      <c r="A14" t="s">
+        <v>122</v>
+      </c>
+      <c r="B14" t="s">
+        <v>122</v>
+      </c>
+      <c r="D14" t="s">
+        <v>129</v>
+      </c>
+      <c r="E14" t="s">
+        <v>10</v>
+      </c>
+      <c r="F14" t="s">
+        <v>133</v>
+      </c>
+      <c r="G14" t="s">
+        <v>12</v>
+      </c>
+      <c r="H14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8">
+      <c r="A15" t="s">
+        <v>123</v>
+      </c>
+      <c r="E15" t="s">
+        <v>10</v>
+      </c>
+      <c r="F15" t="s">
+        <v>133</v>
+      </c>
+      <c r="G15" t="s">
+        <v>12</v>
+      </c>
+      <c r="H15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8">
+      <c r="A16" t="s">
+        <v>123</v>
+      </c>
+      <c r="B16" t="s">
+        <v>125</v>
+      </c>
+      <c r="D16" t="s">
+        <v>129</v>
+      </c>
+      <c r="E16" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" t="s">
+        <v>133</v>
+      </c>
+      <c r="G16" t="s">
+        <v>12</v>
+      </c>
+      <c r="H16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8">
+      <c r="A17" t="s">
+        <v>124</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
+      <c r="E17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F17" t="s">
+        <v>133</v>
+      </c>
+      <c r="G17" t="s">
+        <v>12</v>
+      </c>
+      <c r="H17">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:E37"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:5">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D2" t="s">
+        <v>163</v>
+      </c>
+      <c r="E2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
+      <c r="A3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C3" t="s">
+        <v>138</v>
+      </c>
+      <c r="D3" t="s">
+        <v>163</v>
+      </c>
+      <c r="E3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
+      <c r="A4" t="s">
+        <v>135</v>
+      </c>
+      <c r="D4" t="s">
+        <v>163</v>
+      </c>
+      <c r="E4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
+      <c r="A5" t="s">
+        <v>136</v>
+      </c>
+      <c r="C5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D5" t="s">
+        <v>163</v>
+      </c>
+      <c r="E5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>140</v>
+      </c>
+      <c r="D6" t="s">
+        <v>163</v>
+      </c>
+      <c r="E6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>141</v>
+      </c>
+      <c r="D7" t="s">
+        <v>163</v>
+      </c>
+      <c r="E7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
+      <c r="A8" t="s">
+        <v>58</v>
+      </c>
+      <c r="C8" t="s">
+        <v>142</v>
+      </c>
+      <c r="D8" t="s">
+        <v>164</v>
+      </c>
+      <c r="E8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
+      <c r="A9" t="s">
+        <v>134</v>
+      </c>
+      <c r="C9" t="s">
+        <v>143</v>
+      </c>
+      <c r="D9" t="s">
+        <v>164</v>
+      </c>
+      <c r="E9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
+      <c r="A10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>164</v>
+      </c>
+      <c r="E10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
+      <c r="A11" t="s">
+        <v>136</v>
+      </c>
+      <c r="C11" t="s">
+        <v>144</v>
+      </c>
+      <c r="D11" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
+      <c r="A12" t="s">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s">
+        <v>144</v>
+      </c>
+      <c r="D12" t="s">
+        <v>164</v>
+      </c>
+      <c r="E12">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" t="s">
+        <v>164</v>
+      </c>
+      <c r="E13">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
+      <c r="A14" t="s">
+        <v>58</v>
+      </c>
+      <c r="D14" t="s">
+        <v>165</v>
+      </c>
+      <c r="E14">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="C15" t="s">
+        <v>145</v>
+      </c>
+      <c r="D15" t="s">
+        <v>165</v>
+      </c>
+      <c r="E15">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
+      <c r="A16" t="s">
+        <v>135</v>
+      </c>
+      <c r="C16" t="s">
+        <v>146</v>
+      </c>
+      <c r="D16" t="s">
+        <v>165</v>
+      </c>
+      <c r="E16">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17" t="s">
+        <v>136</v>
+      </c>
+      <c r="C17" t="s">
+        <v>147</v>
+      </c>
+      <c r="D17" t="s">
+        <v>165</v>
+      </c>
+      <c r="E17">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18" t="s">
+        <v>29</v>
+      </c>
+      <c r="D18" t="s">
+        <v>165</v>
+      </c>
+      <c r="E18">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C19" t="s">
+        <v>147</v>
+      </c>
+      <c r="D19" t="s">
+        <v>165</v>
+      </c>
+      <c r="E19">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20" t="s">
+        <v>58</v>
+      </c>
+      <c r="C20" t="s">
+        <v>148</v>
+      </c>
+      <c r="D20" t="s">
+        <v>166</v>
+      </c>
+      <c r="E20">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21" t="s">
+        <v>134</v>
+      </c>
+      <c r="C21" t="s">
+        <v>149</v>
+      </c>
+      <c r="D21" t="s">
+        <v>166</v>
+      </c>
+      <c r="E21">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22" t="s">
+        <v>135</v>
+      </c>
+      <c r="C22" t="s">
+        <v>150</v>
+      </c>
+      <c r="D22" t="s">
+        <v>166</v>
+      </c>
+      <c r="E22">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23" t="s">
+        <v>136</v>
+      </c>
+      <c r="C23" t="s">
+        <v>151</v>
+      </c>
+      <c r="D23" t="s">
+        <v>166</v>
+      </c>
+      <c r="E23">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24" t="s">
+        <v>29</v>
+      </c>
+      <c r="D24" t="s">
+        <v>166</v>
+      </c>
+      <c r="E24">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" t="s">
+        <v>151</v>
+      </c>
+      <c r="D25" t="s">
+        <v>166</v>
+      </c>
+      <c r="E25">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26" t="s">
+        <v>58</v>
+      </c>
+      <c r="C26" t="s">
+        <v>152</v>
+      </c>
+      <c r="D26" t="s">
+        <v>167</v>
+      </c>
+      <c r="E26">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="C27" t="s">
+        <v>153</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>167</v>
+      </c>
+      <c r="E28">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29" t="s">
+        <v>136</v>
+      </c>
+      <c r="C29" t="s">
+        <v>154</v>
+      </c>
+      <c r="D29" t="s">
+        <v>167</v>
+      </c>
+      <c r="E29">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" t="s">
+        <v>155</v>
+      </c>
+      <c r="D30" t="s">
+        <v>167</v>
+      </c>
+      <c r="E30">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31" t="s">
+        <v>32</v>
+      </c>
+      <c r="C31" t="s">
+        <v>156</v>
+      </c>
+      <c r="D31" t="s">
+        <v>167</v>
+      </c>
+      <c r="E31">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32" t="s">
+        <v>58</v>
+      </c>
+      <c r="C32" t="s">
+        <v>157</v>
+      </c>
+      <c r="D32" t="s">
+        <v>168</v>
+      </c>
+      <c r="E32">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33" t="s">
+        <v>134</v>
+      </c>
+      <c r="C33" t="s">
+        <v>158</v>
+      </c>
+      <c r="D33" t="s">
+        <v>168</v>
+      </c>
+      <c r="E33">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34" t="s">
+        <v>135</v>
+      </c>
+      <c r="C34" t="s">
+        <v>159</v>
+      </c>
+      <c r="D34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E34">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35" t="s">
+        <v>136</v>
+      </c>
+      <c r="C35" t="s">
+        <v>160</v>
+      </c>
+      <c r="D35" t="s">
+        <v>168</v>
+      </c>
+      <c r="E35">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" t="s">
+        <v>161</v>
+      </c>
+      <c r="D36" t="s">
+        <v>168</v>
+      </c>
+      <c r="E36">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37" t="s">
+        <v>32</v>
+      </c>
+      <c r="C37" t="s">
+        <v>162</v>
+      </c>
+      <c r="D37" t="s">
+        <v>168</v>
+      </c>
+      <c r="E37">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C2" t="s">
+        <v>172</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>171</v>
+      </c>
+      <c r="C4" t="s">
+        <v>174</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="C5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>177</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2020</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -1158,16 +2260,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C2" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -1175,16 +2277,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>165</v>
+        <v>178</v>
       </c>
       <c r="C3" t="s">
-        <v>166</v>
+        <v>179</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -1195,7 +2297,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F43"/>
   <sheetViews>
@@ -1225,16 +2327,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B2" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -1242,19 +2344,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B3" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C3" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -1262,19 +2364,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B4" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C4" t="s">
-        <v>174</v>
+        <v>187</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -1282,19 +2384,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B5" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C5" t="s">
-        <v>175</v>
+        <v>188</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -1302,16 +2404,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -1319,16 +2421,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -1336,16 +2438,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -1353,19 +2455,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B9" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C9" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -1373,19 +2475,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B10" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C10" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -1393,19 +2495,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B11" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C11" t="s">
-        <v>177</v>
+        <v>190</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -1413,16 +2515,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -1430,16 +2532,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -1447,16 +2549,16 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B14" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -1464,19 +2566,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B15" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C15" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -1484,19 +2586,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B16" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C16" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -1504,16 +2606,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -1521,16 +2623,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -1538,16 +2640,16 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B19" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -1555,19 +2657,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B20" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C20" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F20">
         <v>2020</v>
@@ -1575,19 +2677,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B21" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C21" t="s">
-        <v>180</v>
+        <v>193</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F21">
         <v>2020</v>
@@ -1595,19 +2697,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
+        <v>124</v>
+      </c>
+      <c r="B22" t="s">
         <v>119</v>
       </c>
-      <c r="B22" t="s">
-        <v>107</v>
-      </c>
       <c r="C22" t="s">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F22">
         <v>2020</v>
@@ -1615,16 +2717,16 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="B23" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F23">
         <v>2019</v>
@@ -1632,19 +2734,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B24" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C24" t="s">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F24">
         <v>2019</v>
@@ -1652,19 +2754,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B25" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C25" t="s">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -1672,19 +2774,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B26" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C26" t="s">
-        <v>173</v>
+        <v>186</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F26">
         <v>2019</v>
@@ -1692,16 +2794,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F27">
         <v>2019</v>
@@ -1709,16 +2811,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>167</v>
+        <v>180</v>
       </c>
       <c r="C28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F28">
         <v>2019</v>
@@ -1726,16 +2828,16 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="B29" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F29">
         <v>2019</v>
@@ -1743,19 +2845,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B30" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C30" t="s">
-        <v>184</v>
+        <v>197</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F30">
         <v>2019</v>
@@ -1763,19 +2865,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>171</v>
+        <v>184</v>
       </c>
       <c r="B31" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C31" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F31">
         <v>2019</v>
@@ -1783,19 +2885,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B32" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C32" t="s">
-        <v>176</v>
+        <v>189</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -1803,16 +2905,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F33">
         <v>2019</v>
@@ -1820,16 +2922,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>170</v>
+        <v>183</v>
       </c>
       <c r="C34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -1837,16 +2939,16 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="B35" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F35">
         <v>2019</v>
@@ -1854,19 +2956,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B36" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C36" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F36">
         <v>2019</v>
@@ -1874,19 +2976,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>119</v>
+        <v>124</v>
       </c>
       <c r="B37" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C37" t="s">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F37">
         <v>2019</v>
@@ -1894,16 +2996,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -1911,16 +3013,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" t="s">
-        <v>172</v>
+        <v>185</v>
       </c>
       <c r="C39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F39">
         <v>2019</v>
@@ -1928,16 +3030,16 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="B40" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F40">
         <v>2019</v>
@@ -1945,19 +3047,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>168</v>
+        <v>181</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C41" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -1965,19 +3067,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>169</v>
+        <v>182</v>
       </c>
       <c r="B42" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="C42" t="s">
-        <v>186</v>
+        <v>199</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -1985,19 +3087,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" t="s">
         <v>119</v>
       </c>
-      <c r="B43" t="s">
-        <v>107</v>
-      </c>
       <c r="C43" t="s">
-        <v>179</v>
+        <v>192</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F43">
         <v>2019</v>
@@ -2008,7 +3110,489 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>200</v>
+      </c>
+      <c r="B2" t="s">
+        <v>200</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B3" t="s">
+        <v>200</v>
+      </c>
+      <c r="C3" t="s">
+        <v>208</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="A4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B4" t="s">
+        <v>200</v>
+      </c>
+      <c r="C4" t="s">
+        <v>208</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B5" t="s">
+        <v>203</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>204</v>
+      </c>
+      <c r="B6" t="s">
+        <v>203</v>
+      </c>
+      <c r="C6" t="s">
+        <v>209</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>11</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="A7" t="s">
+        <v>205</v>
+      </c>
+      <c r="B7" t="s">
+        <v>203</v>
+      </c>
+      <c r="C7" t="s">
+        <v>210</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F7">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6">
+      <c r="A8" t="s">
+        <v>202</v>
+      </c>
+      <c r="B8" t="s">
+        <v>203</v>
+      </c>
+      <c r="C8" t="s">
+        <v>208</v>
+      </c>
+      <c r="D8" t="s">
+        <v>10</v>
+      </c>
+      <c r="E8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6">
+      <c r="A9" t="s">
+        <v>206</v>
+      </c>
+      <c r="B9" t="s">
+        <v>206</v>
+      </c>
+      <c r="D9" t="s">
+        <v>10</v>
+      </c>
+      <c r="E9" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6">
+      <c r="A10" t="s">
+        <v>207</v>
+      </c>
+      <c r="B10" t="s">
+        <v>206</v>
+      </c>
+      <c r="C10" t="s">
+        <v>208</v>
+      </c>
+      <c r="D10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" t="s">
+        <v>11</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6">
+      <c r="A11" t="s">
+        <v>202</v>
+      </c>
+      <c r="B11" t="s">
+        <v>206</v>
+      </c>
+      <c r="C11" t="s">
+        <v>208</v>
+      </c>
+      <c r="D11" t="s">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>11</v>
+      </c>
+      <c r="F11">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6">
+      <c r="A12" t="s">
+        <v>200</v>
+      </c>
+      <c r="B12" t="s">
+        <v>200</v>
+      </c>
+      <c r="D12" t="s">
+        <v>10</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6">
+      <c r="A13" t="s">
+        <v>201</v>
+      </c>
+      <c r="B13" t="s">
+        <v>200</v>
+      </c>
+      <c r="C13" t="s">
+        <v>211</v>
+      </c>
+      <c r="D13" t="s">
+        <v>10</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6">
+      <c r="A14" t="s">
+        <v>202</v>
+      </c>
+      <c r="B14" t="s">
+        <v>200</v>
+      </c>
+      <c r="C14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D14" t="s">
+        <v>10</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6">
+      <c r="A15" t="s">
+        <v>203</v>
+      </c>
+      <c r="B15" t="s">
+        <v>203</v>
+      </c>
+      <c r="D15" t="s">
+        <v>10</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6">
+      <c r="A16" t="s">
+        <v>204</v>
+      </c>
+      <c r="B16" t="s">
+        <v>203</v>
+      </c>
+      <c r="C16" t="s">
+        <v>212</v>
+      </c>
+      <c r="D16" t="s">
+        <v>10</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6">
+      <c r="A17" t="s">
+        <v>205</v>
+      </c>
+      <c r="B17" t="s">
+        <v>203</v>
+      </c>
+      <c r="C17" t="s">
+        <v>213</v>
+      </c>
+      <c r="D17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6">
+      <c r="A18" t="s">
+        <v>202</v>
+      </c>
+      <c r="B18" t="s">
+        <v>203</v>
+      </c>
+      <c r="C18" t="s">
+        <v>211</v>
+      </c>
+      <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6">
+      <c r="A19" t="s">
+        <v>206</v>
+      </c>
+      <c r="B19" t="s">
+        <v>206</v>
+      </c>
+      <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6">
+      <c r="A20" t="s">
+        <v>207</v>
+      </c>
+      <c r="B20" t="s">
+        <v>206</v>
+      </c>
+      <c r="C20" t="s">
+        <v>211</v>
+      </c>
+      <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6">
+      <c r="A21" t="s">
+        <v>202</v>
+      </c>
+      <c r="B21" t="s">
+        <v>206</v>
+      </c>
+      <c r="C21" t="s">
+        <v>211</v>
+      </c>
+      <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>214</v>
+      </c>
+      <c r="C2" t="s">
+        <v>215</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>214</v>
+      </c>
+      <c r="C3" t="s">
+        <v>216</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F11"/>
   <sheetViews>
@@ -2038,16 +3622,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C2" t="s">
-        <v>191</v>
+        <v>221</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2055,13 +3639,13 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2069,13 +3653,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -2083,16 +3667,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C5" t="s">
-        <v>192</v>
+        <v>222</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -2100,13 +3684,13 @@
     </row>
     <row r="6" spans="1:6">
       <c r="C6" t="s">
-        <v>193</v>
+        <v>223</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -2114,16 +3698,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>187</v>
+        <v>217</v>
       </c>
       <c r="C7" t="s">
-        <v>194</v>
+        <v>224</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -2131,16 +3715,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>188</v>
+        <v>218</v>
       </c>
       <c r="C8" t="s">
-        <v>195</v>
+        <v>225</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -2148,16 +3732,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>189</v>
+        <v>219</v>
       </c>
       <c r="C9" t="s">
-        <v>196</v>
+        <v>226</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -2165,16 +3749,16 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>190</v>
+        <v>220</v>
       </c>
       <c r="C10" t="s">
-        <v>197</v>
+        <v>227</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -2182,13 +3766,13 @@
     </row>
     <row r="11" spans="1:6">
       <c r="C11" t="s">
-        <v>198</v>
+        <v>228</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -2199,7 +3783,74 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>229</v>
+      </c>
+      <c r="C2" t="s">
+        <v>230</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>229</v>
+      </c>
+      <c r="C3" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -2229,16 +3880,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C2" t="s">
-        <v>201</v>
+        <v>234</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2246,16 +3897,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="C3" t="s">
-        <v>146</v>
+        <v>150</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2263,13 +3914,13 @@
     </row>
     <row r="4" spans="1:6">
       <c r="C4" t="s">
-        <v>202</v>
+        <v>235</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -2277,16 +3928,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>199</v>
+        <v>232</v>
       </c>
       <c r="C5" t="s">
-        <v>203</v>
+        <v>236</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -2294,16 +3945,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>200</v>
+        <v>233</v>
       </c>
       <c r="C6" t="s">
-        <v>204</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -2311,13 +3962,13 @@
     </row>
     <row r="7" spans="1:6">
       <c r="C7" t="s">
-        <v>205</v>
+        <v>238</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -2329,6 +3980,264 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>13</v>
+      </c>
+      <c r="C5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="C6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>20</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:F7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:6">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
+        <v>11</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" t="s">
+        <v>11</v>
+      </c>
+      <c r="F3">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6">
+      <c r="C4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E4" t="s">
+        <v>11</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6">
+      <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D5" t="s">
+        <v>10</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6">
+      <c r="A6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6">
+        <v>2019</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6">
+      <c r="C7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D7" t="s">
+        <v>10</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7">
+        <v>2019</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -2358,16 +4267,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B2" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2375,16 +4284,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2392,16 +4301,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -2409,13 +4318,13 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -2423,16 +4332,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -2440,16 +4349,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -2457,16 +4366,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -2474,19 +4383,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>18</v>
+        <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -2494,19 +4403,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B10" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -2514,16 +4423,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -2531,16 +4440,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -2548,19 +4457,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>19</v>
+        <v>31</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="C13" t="s">
-        <v>24</v>
+        <v>36</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -2571,7 +4480,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2584,7 +4493,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>25</v>
+        <v>37</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -2599,7 +4508,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>26</v>
+        <v>38</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -2607,19 +4516,19 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C2" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E2" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G2" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H2">
         <v>2020</v>
@@ -2627,25 +4536,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C3" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E3" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H3">
         <v>2020</v>
@@ -2653,19 +4562,19 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E4" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G4" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H4">
         <v>2019</v>
@@ -2673,25 +4582,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C5" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="E5" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G5" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H5">
         <v>2019</v>
@@ -2699,19 +4608,19 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C6" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F6" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G6" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H6">
         <v>2020</v>
@@ -2719,25 +4628,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="E7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F7" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="G7" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H7">
         <v>2020</v>
@@ -2745,19 +4654,19 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="E8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G8" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H8">
         <v>2019</v>
@@ -2765,25 +4674,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>39</v>
       </c>
       <c r="D9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="E9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="F9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="G9" t="s">
-        <v>34</v>
+        <v>46</v>
       </c>
       <c r="H9">
         <v>2019</v>
@@ -2794,7 +4703,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F9"/>
   <sheetViews>
@@ -2824,16 +4733,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2841,16 +4750,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
+        <v>51</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2858,16 +4767,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C4" t="s">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -2875,16 +4784,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C5" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -2892,16 +4801,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="C6" t="s">
-        <v>41</v>
+        <v>53</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -2909,16 +4818,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>36</v>
+        <v>48</v>
       </c>
       <c r="C7" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -2926,16 +4835,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>37</v>
+        <v>49</v>
       </c>
       <c r="C8" t="s">
-        <v>43</v>
+        <v>55</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -2943,16 +4852,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>44</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -2963,7 +4872,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
@@ -2993,16 +4902,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>44</v>
+        <v>56</v>
       </c>
       <c r="C2" t="s">
-        <v>31</v>
+        <v>43</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3010,16 +4919,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" t="s">
         <v>44</v>
       </c>
-      <c r="C3" t="s">
-        <v>32</v>
-      </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -3030,7 +4939,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F76"/>
   <sheetViews>
@@ -3060,33 +4969,36 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B2" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F2">
+        <v>2020</v>
       </c>
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C3" t="s">
-        <v>57</v>
+        <v>69</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -3094,70 +5006,79 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B4" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
-        <v>58</v>
+        <v>70</v>
       </c>
       <c r="D4" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E4" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F4">
+        <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B5" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C5" t="s">
-        <v>59</v>
+        <v>71</v>
       </c>
       <c r="D5" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E5" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F5">
+        <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C6" t="s">
-        <v>60</v>
+        <v>72</v>
       </c>
       <c r="D6" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E6" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F6">
+        <v>2020</v>
       </c>
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B7" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C7" t="s">
-        <v>61</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E7" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -3165,33 +5086,36 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B8" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D8" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E8" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F8">
+        <v>2020</v>
       </c>
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B9" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C9" t="s">
-        <v>62</v>
+        <v>74</v>
       </c>
       <c r="D9" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E9" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -3199,70 +5123,79 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B10" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C10" t="s">
-        <v>63</v>
+        <v>75</v>
       </c>
       <c r="D10" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E10" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F10">
+        <v>2020</v>
       </c>
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C11" t="s">
-        <v>64</v>
+        <v>76</v>
       </c>
       <c r="D11" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F11">
+        <v>2020</v>
       </c>
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B12" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C12" t="s">
-        <v>65</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E12" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F12">
+        <v>2020</v>
       </c>
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B13" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C13" t="s">
-        <v>66</v>
+        <v>78</v>
       </c>
       <c r="D13" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E13" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -3270,33 +5203,36 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D14" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>103</v>
+        <v>115</v>
+      </c>
+      <c r="F14">
+        <v>2020</v>
       </c>
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B15" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C15" t="s">
-        <v>67</v>
+        <v>79</v>
       </c>
       <c r="D15" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -3304,19 +5240,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C16" t="s">
-        <v>68</v>
+        <v>80</v>
       </c>
       <c r="D16" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
       <c r="F16">
         <v>2019</v>
@@ -3324,33 +5260,36 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B17" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D17" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F17">
+        <v>2020</v>
       </c>
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B18" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D18" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -3358,70 +5297,79 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B19" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
       <c r="D19" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F19">
+        <v>2020</v>
       </c>
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
       <c r="D20" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F20">
+        <v>2020</v>
       </c>
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B21" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>72</v>
+        <v>84</v>
       </c>
       <c r="D21" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F21">
+        <v>2020</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B22" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C22" t="s">
-        <v>73</v>
+        <v>85</v>
       </c>
       <c r="D22" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E22" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F22">
         <v>2020</v>
@@ -3429,33 +5377,36 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B23" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D23" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E23" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F23">
+        <v>2020</v>
       </c>
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B24" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C24" t="s">
-        <v>74</v>
+        <v>86</v>
       </c>
       <c r="D24" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F24">
         <v>2020</v>
@@ -3463,70 +5414,79 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C25" t="s">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="D25" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F25">
+        <v>2020</v>
       </c>
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B26" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C26" t="s">
-        <v>76</v>
+        <v>88</v>
       </c>
       <c r="D26" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F26">
+        <v>2020</v>
       </c>
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B27" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C27" t="s">
-        <v>77</v>
+        <v>89</v>
       </c>
       <c r="D27" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F27">
+        <v>2020</v>
       </c>
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B28" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C28" t="s">
-        <v>78</v>
+        <v>90</v>
       </c>
       <c r="D28" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F28">
         <v>2020</v>
@@ -3534,33 +5494,36 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B29" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D29" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>104</v>
+        <v>116</v>
+      </c>
+      <c r="F29">
+        <v>2020</v>
       </c>
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B30" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C30" t="s">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="D30" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F30">
         <v>2020</v>
@@ -3568,19 +5531,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B31" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C31" t="s">
-        <v>80</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F31">
         <v>2019</v>
@@ -3588,33 +5551,36 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B32" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D32" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F32">
+        <v>2020</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B33" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C33" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D33" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E33" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -3622,64 +5588,73 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B34" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C34" t="s">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="D34" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E34" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F34">
+        <v>2020</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B35" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D35" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E35" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F35">
+        <v>2020</v>
       </c>
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B36" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E36" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F36">
+        <v>2020</v>
       </c>
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B37" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C37" t="s">
-        <v>83</v>
+        <v>95</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E37" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F37">
         <v>2020</v>
@@ -3687,33 +5662,36 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B38" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E38" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F38">
+        <v>2020</v>
       </c>
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B39" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C39" t="s">
-        <v>81</v>
+        <v>93</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E39" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -3721,64 +5699,73 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B40" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E40" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F40">
+        <v>2020</v>
       </c>
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B41" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C41" t="s">
-        <v>84</v>
+        <v>96</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E41" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F41">
+        <v>2020</v>
       </c>
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B42" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E42" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F42">
+        <v>2020</v>
       </c>
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B43" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C43" t="s">
-        <v>85</v>
+        <v>97</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E43" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F43">
         <v>2020</v>
@@ -3786,33 +5773,36 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B44" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D44" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E44" t="s">
-        <v>105</v>
+        <v>117</v>
+      </c>
+      <c r="F44">
+        <v>2020</v>
       </c>
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B45" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C45" t="s">
-        <v>86</v>
+        <v>98</v>
       </c>
       <c r="D45" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E45" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F45">
         <v>2020</v>
@@ -3820,19 +5810,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B46" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C46" t="s">
-        <v>87</v>
+        <v>99</v>
       </c>
       <c r="D46" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E46" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="F46">
         <v>2019</v>
@@ -3840,33 +5830,36 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B47" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E47" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F47">
+        <v>2020</v>
       </c>
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B48" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C48" t="s">
-        <v>88</v>
+        <v>100</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E48" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F48">
         <v>2020</v>
@@ -3874,64 +5867,73 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B49" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E49" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F49">
+        <v>2020</v>
       </c>
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B50" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C50" t="s">
-        <v>89</v>
+        <v>101</v>
       </c>
       <c r="D50" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E50" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F50">
+        <v>2020</v>
       </c>
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B51" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D51" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E51" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F51">
+        <v>2020</v>
       </c>
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B52" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C52" t="s">
-        <v>90</v>
+        <v>102</v>
       </c>
       <c r="D52" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E52" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F52">
         <v>2020</v>
@@ -3939,33 +5941,36 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B53" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D53" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E53" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F53">
+        <v>2020</v>
       </c>
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B54" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C54" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D54" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E54" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F54">
         <v>2020</v>
@@ -3973,61 +5978,70 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B55" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D55" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E55" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F55">
+        <v>2020</v>
       </c>
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B56" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D56" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E56" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F56">
+        <v>2020</v>
       </c>
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B57" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D57" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E57" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F57">
+        <v>2020</v>
       </c>
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B58" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C58" t="s">
-        <v>91</v>
+        <v>103</v>
       </c>
       <c r="D58" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E58" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F58">
         <v>2020</v>
@@ -4035,33 +6049,36 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B59" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D59" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E59" t="s">
-        <v>106</v>
+        <v>118</v>
+      </c>
+      <c r="F59">
+        <v>2020</v>
       </c>
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B60" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C60" t="s">
-        <v>92</v>
+        <v>104</v>
       </c>
       <c r="D60" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E60" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F60">
         <v>2020</v>
@@ -4069,16 +6086,16 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B61" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D61" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E61" t="s">
-        <v>106</v>
+        <v>118</v>
       </c>
       <c r="F61">
         <v>2019</v>
@@ -4086,33 +6103,36 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="B62" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D62" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E62" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F62">
+        <v>2020</v>
       </c>
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>46</v>
+        <v>58</v>
       </c>
       <c r="B63" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C63" t="s">
-        <v>93</v>
+        <v>105</v>
       </c>
       <c r="D63" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E63" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F63">
         <v>2020</v>
@@ -4120,67 +6140,76 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>47</v>
+        <v>59</v>
       </c>
       <c r="B64" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>106</v>
       </c>
       <c r="D64" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E64" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F64">
+        <v>2020</v>
       </c>
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B65" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D65" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E65" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F65">
+        <v>2020</v>
       </c>
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>49</v>
+        <v>61</v>
       </c>
       <c r="B66" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="D66" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E66" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F66">
+        <v>2020</v>
       </c>
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B67" t="s">
-        <v>45</v>
+        <v>57</v>
       </c>
       <c r="C67" t="s">
-        <v>96</v>
+        <v>108</v>
       </c>
       <c r="D67" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E67" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F67">
         <v>2020</v>
@@ -4188,33 +6217,36 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="B68" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="D68" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E68" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F68">
+        <v>2020</v>
       </c>
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>52</v>
+        <v>64</v>
       </c>
       <c r="B69" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C69" t="s">
-        <v>97</v>
+        <v>109</v>
       </c>
       <c r="D69" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E69" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F69">
         <v>2020</v>
@@ -4222,70 +6254,79 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>53</v>
+        <v>65</v>
       </c>
       <c r="B70" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C70" t="s">
-        <v>98</v>
+        <v>110</v>
       </c>
       <c r="D70" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E70" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F70">
+        <v>2020</v>
       </c>
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>54</v>
+        <v>66</v>
       </c>
       <c r="B71" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C71" t="s">
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="D71" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E71" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F71">
+        <v>2020</v>
       </c>
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>48</v>
+        <v>60</v>
       </c>
       <c r="B72" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C72" t="s">
-        <v>95</v>
+        <v>107</v>
       </c>
       <c r="D72" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E72" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F72">
+        <v>2020</v>
       </c>
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>51</v>
+        <v>63</v>
       </c>
       <c r="C73" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D73" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E73" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F73">
         <v>2020</v>
@@ -4293,33 +6334,36 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B74" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="D74" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E74" t="s">
-        <v>107</v>
+        <v>119</v>
+      </c>
+      <c r="F74">
+        <v>2020</v>
       </c>
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>50</v>
+        <v>62</v>
       </c>
       <c r="B75" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C75" t="s">
-        <v>101</v>
+        <v>113</v>
       </c>
       <c r="D75" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E75" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F75">
         <v>2020</v>
@@ -4327,19 +6371,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>56</v>
+        <v>68</v>
       </c>
       <c r="B76" t="s">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="C76" t="s">
-        <v>102</v>
+        <v>114</v>
       </c>
       <c r="D76" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E76" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
       <c r="F76">
         <v>2019</v>
@@ -4350,9 +6394,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4380,16 +6424,13 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" t="s">
-        <v>111</v>
+        <v>120</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4397,905 +6438,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>120</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>121</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
-      <c r="A4" t="s">
-        <v>110</v>
-      </c>
-      <c r="C4" t="s">
-        <v>113</v>
-      </c>
-      <c r="D4" t="s">
-        <v>14</v>
-      </c>
-      <c r="E4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
-      <c r="C5" t="s">
-        <v>114</v>
-      </c>
-      <c r="D5" t="s">
-        <v>14</v>
-      </c>
-      <c r="E5" t="s">
-        <v>15</v>
-      </c>
-      <c r="F5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>115</v>
-      </c>
-      <c r="D6" t="s">
-        <v>14</v>
-      </c>
-      <c r="E6" t="s">
-        <v>15</v>
-      </c>
-      <c r="F6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>116</v>
-      </c>
-      <c r="D7" t="s">
-        <v>14</v>
-      </c>
-      <c r="E7" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7">
-        <v>2020</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H17"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:8">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" t="s">
-        <v>117</v>
-      </c>
-      <c r="B2" t="s">
-        <v>117</v>
-      </c>
-      <c r="D2" t="s">
-        <v>121</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
-      <c r="F2" t="s">
-        <v>128</v>
-      </c>
-      <c r="G2" t="s">
-        <v>15</v>
-      </c>
-      <c r="H2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8">
-      <c r="A3" t="s">
-        <v>118</v>
-      </c>
-      <c r="E3" t="s">
-        <v>14</v>
-      </c>
-      <c r="F3" t="s">
-        <v>128</v>
-      </c>
-      <c r="G3" t="s">
-        <v>15</v>
-      </c>
-      <c r="H3">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" t="s">
-        <v>120</v>
-      </c>
-      <c r="D4" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F4" t="s">
-        <v>128</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>119</v>
-      </c>
-      <c r="B5" t="s">
-        <v>119</v>
-      </c>
-      <c r="D5" t="s">
-        <v>123</v>
-      </c>
-      <c r="E5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F5" t="s">
-        <v>128</v>
-      </c>
-      <c r="G5" t="s">
-        <v>15</v>
-      </c>
-      <c r="H5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" t="s">
-        <v>117</v>
-      </c>
-      <c r="B6" t="s">
-        <v>117</v>
-      </c>
-      <c r="D6" t="s">
-        <v>124</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" t="s">
-        <v>129</v>
-      </c>
-      <c r="G6" t="s">
-        <v>15</v>
-      </c>
-      <c r="H6">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" t="s">
-        <v>118</v>
-      </c>
-      <c r="E7" t="s">
-        <v>14</v>
-      </c>
-      <c r="F7" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" t="s">
-        <v>15</v>
-      </c>
-      <c r="H7">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" t="s">
-        <v>118</v>
-      </c>
-      <c r="B8" t="s">
-        <v>120</v>
-      </c>
-      <c r="D8" t="s">
-        <v>124</v>
-      </c>
-      <c r="E8" t="s">
-        <v>14</v>
-      </c>
-      <c r="F8" t="s">
-        <v>129</v>
-      </c>
-      <c r="G8" t="s">
-        <v>15</v>
-      </c>
-      <c r="H8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" t="s">
-        <v>119</v>
-      </c>
-      <c r="B9" t="s">
-        <v>119</v>
-      </c>
-      <c r="E9" t="s">
-        <v>14</v>
-      </c>
-      <c r="F9" t="s">
-        <v>129</v>
-      </c>
-      <c r="G9" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" t="s">
-        <v>117</v>
-      </c>
-      <c r="D10" t="s">
-        <v>121</v>
-      </c>
-      <c r="E10" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" t="s">
-        <v>128</v>
-      </c>
-      <c r="G10" t="s">
-        <v>16</v>
-      </c>
-      <c r="H10">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" t="s">
-        <v>118</v>
-      </c>
-      <c r="D11" t="s">
-        <v>125</v>
-      </c>
-      <c r="E11" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" t="s">
-        <v>128</v>
-      </c>
-      <c r="G11" t="s">
-        <v>16</v>
-      </c>
-      <c r="H11">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" t="s">
-        <v>118</v>
-      </c>
-      <c r="B12" t="s">
-        <v>120</v>
-      </c>
-      <c r="D12" t="s">
-        <v>126</v>
-      </c>
-      <c r="E12" t="s">
-        <v>14</v>
-      </c>
-      <c r="F12" t="s">
-        <v>128</v>
-      </c>
-      <c r="G12" t="s">
-        <v>16</v>
-      </c>
-      <c r="H12">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8">
-      <c r="A13" t="s">
-        <v>119</v>
-      </c>
-      <c r="B13" t="s">
-        <v>119</v>
-      </c>
-      <c r="D13" t="s">
-        <v>127</v>
-      </c>
-      <c r="E13" t="s">
-        <v>14</v>
-      </c>
-      <c r="F13" t="s">
-        <v>128</v>
-      </c>
-      <c r="G13" t="s">
-        <v>16</v>
-      </c>
-      <c r="H13">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8">
-      <c r="A14" t="s">
-        <v>117</v>
-      </c>
-      <c r="B14" t="s">
-        <v>117</v>
-      </c>
-      <c r="D14" t="s">
-        <v>124</v>
-      </c>
-      <c r="E14" t="s">
-        <v>14</v>
-      </c>
-      <c r="F14" t="s">
-        <v>129</v>
-      </c>
-      <c r="G14" t="s">
-        <v>16</v>
-      </c>
-      <c r="H14">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8">
-      <c r="A15" t="s">
-        <v>118</v>
-      </c>
-      <c r="E15" t="s">
-        <v>14</v>
-      </c>
-      <c r="F15" t="s">
-        <v>129</v>
-      </c>
-      <c r="G15" t="s">
-        <v>16</v>
-      </c>
-      <c r="H15">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8">
-      <c r="A16" t="s">
-        <v>118</v>
-      </c>
-      <c r="B16" t="s">
-        <v>120</v>
-      </c>
-      <c r="D16" t="s">
-        <v>124</v>
-      </c>
-      <c r="E16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F16" t="s">
-        <v>129</v>
-      </c>
-      <c r="G16" t="s">
-        <v>16</v>
-      </c>
-      <c r="H16">
-        <v>2019</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8">
-      <c r="A17" t="s">
-        <v>119</v>
-      </c>
-      <c r="B17" t="s">
-        <v>119</v>
-      </c>
-      <c r="E17" t="s">
-        <v>14</v>
-      </c>
-      <c r="F17" t="s">
-        <v>129</v>
-      </c>
-      <c r="G17" t="s">
-        <v>16</v>
-      </c>
-      <c r="H17">
-        <v>2019</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E37"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:5">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5">
-      <c r="A2" t="s">
-        <v>46</v>
-      </c>
-      <c r="C2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D2" t="s">
-        <v>159</v>
-      </c>
-      <c r="E2">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5">
-      <c r="A3" t="s">
-        <v>130</v>
-      </c>
-      <c r="C3" t="s">
-        <v>134</v>
-      </c>
-      <c r="D3" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5">
-      <c r="A4" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5">
-      <c r="A5" t="s">
-        <v>132</v>
-      </c>
-      <c r="C5" t="s">
-        <v>135</v>
-      </c>
-      <c r="D5" t="s">
-        <v>159</v>
-      </c>
-      <c r="E5">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5">
-      <c r="A6" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" t="s">
-        <v>136</v>
-      </c>
-      <c r="D6" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5">
-      <c r="A7" t="s">
-        <v>20</v>
-      </c>
-      <c r="C7" t="s">
-        <v>137</v>
-      </c>
-      <c r="D7" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5">
-      <c r="A8" t="s">
-        <v>46</v>
-      </c>
-      <c r="C8" t="s">
-        <v>138</v>
-      </c>
-      <c r="D8" t="s">
-        <v>160</v>
-      </c>
-      <c r="E8">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5">
-      <c r="A9" t="s">
-        <v>130</v>
-      </c>
-      <c r="C9" t="s">
-        <v>139</v>
-      </c>
-      <c r="D9" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5">
-      <c r="A10" t="s">
-        <v>131</v>
-      </c>
-      <c r="D10" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5">
-      <c r="A11" t="s">
-        <v>132</v>
-      </c>
-      <c r="C11" t="s">
-        <v>140</v>
-      </c>
-      <c r="D11" t="s">
-        <v>160</v>
-      </c>
-      <c r="E11">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5">
-      <c r="A12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12" t="s">
-        <v>140</v>
-      </c>
-      <c r="D12" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5">
-      <c r="A13" t="s">
-        <v>20</v>
-      </c>
-      <c r="D13" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5">
-      <c r="A14" t="s">
-        <v>46</v>
-      </c>
-      <c r="D14" t="s">
-        <v>161</v>
-      </c>
-      <c r="E14">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5">
-      <c r="A15" t="s">
-        <v>130</v>
-      </c>
-      <c r="C15" t="s">
-        <v>141</v>
-      </c>
-      <c r="D15" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5">
-      <c r="A16" t="s">
-        <v>131</v>
-      </c>
-      <c r="C16" t="s">
-        <v>142</v>
-      </c>
-      <c r="D16" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17" t="s">
-        <v>132</v>
-      </c>
-      <c r="C17" t="s">
-        <v>143</v>
-      </c>
-      <c r="D17" t="s">
-        <v>161</v>
-      </c>
-      <c r="E17">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D18" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5">
-      <c r="A19" t="s">
-        <v>20</v>
-      </c>
-      <c r="C19" t="s">
-        <v>143</v>
-      </c>
-      <c r="D19" t="s">
-        <v>161</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5">
-      <c r="A20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C20" t="s">
-        <v>144</v>
-      </c>
-      <c r="D20" t="s">
-        <v>162</v>
-      </c>
-      <c r="E20">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5">
-      <c r="A21" t="s">
-        <v>130</v>
-      </c>
-      <c r="C21" t="s">
-        <v>145</v>
-      </c>
-      <c r="D21" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5">
-      <c r="A22" t="s">
-        <v>131</v>
-      </c>
-      <c r="C22" t="s">
-        <v>146</v>
-      </c>
-      <c r="D22" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5">
-      <c r="A23" t="s">
-        <v>132</v>
-      </c>
-      <c r="C23" t="s">
-        <v>147</v>
-      </c>
-      <c r="D23" t="s">
-        <v>162</v>
-      </c>
-      <c r="E23">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5">
-      <c r="A24" t="s">
-        <v>17</v>
-      </c>
-      <c r="D24" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5">
-      <c r="A25" t="s">
-        <v>20</v>
-      </c>
-      <c r="C25" t="s">
-        <v>147</v>
-      </c>
-      <c r="D25" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5">
-      <c r="A26" t="s">
-        <v>46</v>
-      </c>
-      <c r="C26" t="s">
-        <v>148</v>
-      </c>
-      <c r="D26" t="s">
-        <v>163</v>
-      </c>
-      <c r="E26">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5">
-      <c r="A27" t="s">
-        <v>130</v>
-      </c>
-      <c r="C27" t="s">
-        <v>149</v>
-      </c>
-      <c r="D27" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5">
-      <c r="A28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5">
-      <c r="A29" t="s">
-        <v>132</v>
-      </c>
-      <c r="C29" t="s">
-        <v>150</v>
-      </c>
-      <c r="D29" t="s">
-        <v>163</v>
-      </c>
-      <c r="E29">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5">
-      <c r="A30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C30" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5">
-      <c r="A31" t="s">
-        <v>20</v>
-      </c>
-      <c r="C31" t="s">
-        <v>152</v>
-      </c>
-      <c r="D31" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5">
-      <c r="A32" t="s">
-        <v>46</v>
-      </c>
-      <c r="C32" t="s">
-        <v>153</v>
-      </c>
-      <c r="D32" t="s">
-        <v>164</v>
-      </c>
-      <c r="E32">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5">
-      <c r="A33" t="s">
-        <v>130</v>
-      </c>
-      <c r="C33" t="s">
-        <v>154</v>
-      </c>
-      <c r="D33" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5">
-      <c r="A34" t="s">
-        <v>131</v>
-      </c>
-      <c r="C34" t="s">
-        <v>155</v>
-      </c>
-      <c r="D34" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5">
-      <c r="A35" t="s">
-        <v>132</v>
-      </c>
-      <c r="C35" t="s">
-        <v>156</v>
-      </c>
-      <c r="D35" t="s">
-        <v>164</v>
-      </c>
-      <c r="E35">
-        <v>2020</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5">
-      <c r="A36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C36" t="s">
-        <v>157</v>
-      </c>
-      <c r="D36" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5">
-      <c r="A37" t="s">
-        <v>20</v>
-      </c>
-      <c r="C37" t="s">
-        <v>158</v>
-      </c>
-      <c r="D37" t="s">
-        <v>164</v>
+        <v>2019</v>
       </c>
     </row>
   </sheetData>

--- a/output/599060e9-8b46-46ec-87b9-c79cde8a82b7/599060e9-8b46-46ec-87b9-c79cde8a82b7_notes_standard_cropped_df.xlsx
+++ b/output/599060e9-8b46-46ec-87b9-c79cde8a82b7/599060e9-8b46-46ec-87b9-c79cde8a82b7_notes_standard_cropped_df.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1248" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1052" uniqueCount="90">
   <si>
     <t>line_item_0</t>
   </si>
@@ -58,12 +58,6 @@
     <t>Cash at banks earns interest at floating rates based on daily bank deposit rates.</t>
   </si>
   <si>
-    <t>19589</t>
-  </si>
-  <si>
-    <t>28259</t>
-  </si>
-  <si>
     <t>$000</t>
   </si>
   <si>
@@ -79,48 +73,12 @@
     <t>Related party receivables (Note 20)</t>
   </si>
   <si>
-    <t>1697</t>
-  </si>
-  <si>
-    <t>11927</t>
-  </si>
-  <si>
-    <t>13624</t>
-  </si>
-  <si>
-    <t>1390</t>
-  </si>
-  <si>
-    <t>10609</t>
-  </si>
-  <si>
-    <t>11999</t>
-  </si>
-  <si>
     <t>Raw materials</t>
   </si>
   <si>
     <t>Finished goods</t>
   </si>
   <si>
-    <t>18547</t>
-  </si>
-  <si>
-    <t>8651</t>
-  </si>
-  <si>
-    <t>27198</t>
-  </si>
-  <si>
-    <t>19816</t>
-  </si>
-  <si>
-    <t>7137</t>
-  </si>
-  <si>
-    <t>26953</t>
-  </si>
-  <si>
     <t>Current</t>
   </si>
   <si>
@@ -133,18 +91,6 @@
     <t>Non-current</t>
   </si>
   <si>
-    <t>51</t>
-  </si>
-  <si>
-    <t>29702</t>
-  </si>
-  <si>
-    <t>29753</t>
-  </si>
-  <si>
-    <t>12453</t>
-  </si>
-  <si>
     <t>line_item_1</t>
   </si>
   <si>
@@ -160,15 +106,6 @@
     <t>Investment</t>
   </si>
   <si>
-    <t>52.95%</t>
-  </si>
-  <si>
-    <t>47672</t>
-  </si>
-  <si>
-    <t>54535</t>
-  </si>
-  <si>
     <t>%</t>
   </si>
   <si>
@@ -187,21 +124,6 @@
     <t>Carrying value of investment at end of year</t>
   </si>
   <si>
-    <t>1586</t>
-  </si>
-  <si>
-    <t>(8,448)</t>
-  </si>
-  <si>
-    <t>59249</t>
-  </si>
-  <si>
-    <t>(7,587)</t>
-  </si>
-  <si>
-    <t>2873</t>
-  </si>
-  <si>
     <t>Investment in joint venture (Southern Cross Aluminium Pty Ltd)</t>
   </si>
   <si>
@@ -241,144 +163,6 @@
     <t>At 31 December 2019</t>
   </si>
   <si>
-    <t>90430</t>
-  </si>
-  <si>
-    <t>376</t>
-  </si>
-  <si>
-    <t>(149)</t>
-  </si>
-  <si>
-    <t>74</t>
-  </si>
-  <si>
-    <t>90731</t>
-  </si>
-  <si>
-    <t>90235</t>
-  </si>
-  <si>
-    <t>57</t>
-  </si>
-  <si>
-    <t>351</t>
-  </si>
-  <si>
-    <t>(154)</t>
-  </si>
-  <si>
-    <t>90489</t>
-  </si>
-  <si>
-    <t>242</t>
-  </si>
-  <si>
-    <t>195</t>
-  </si>
-  <si>
-    <t>314181</t>
-  </si>
-  <si>
-    <t>5232</t>
-  </si>
-  <si>
-    <t>(1,122)</t>
-  </si>
-  <si>
-    <t>(74)</t>
-  </si>
-  <si>
-    <t>318217</t>
-  </si>
-  <si>
-    <t>312388</t>
-  </si>
-  <si>
-    <t>827</t>
-  </si>
-  <si>
-    <t>4618</t>
-  </si>
-  <si>
-    <t>(1,182)</t>
-  </si>
-  <si>
-    <t>316651</t>
-  </si>
-  <si>
-    <t>1566</t>
-  </si>
-  <si>
-    <t>1793</t>
-  </si>
-  <si>
-    <t>1628</t>
-  </si>
-  <si>
-    <t>34643</t>
-  </si>
-  <si>
-    <t>36271</t>
-  </si>
-  <si>
-    <t>20598</t>
-  </si>
-  <si>
-    <t>22226</t>
-  </si>
-  <si>
-    <t>14045</t>
-  </si>
-  <si>
-    <t>1743</t>
-  </si>
-  <si>
-    <t>2538</t>
-  </si>
-  <si>
-    <t>(65)</t>
-  </si>
-  <si>
-    <t>2473</t>
-  </si>
-  <si>
-    <t>795</t>
-  </si>
-  <si>
-    <t>1678</t>
-  </si>
-  <si>
-    <t>408777</t>
-  </si>
-  <si>
-    <t>40251</t>
-  </si>
-  <si>
-    <t>(1,336)</t>
-  </si>
-  <si>
-    <t>447692</t>
-  </si>
-  <si>
-    <t>405046</t>
-  </si>
-  <si>
-    <t>884</t>
-  </si>
-  <si>
-    <t>25567</t>
-  </si>
-  <si>
-    <t>430161</t>
-  </si>
-  <si>
-    <t>17531</t>
-  </si>
-  <si>
-    <t>3731</t>
-  </si>
-  <si>
     <t>Freehold land and buildings</t>
   </si>
   <si>
@@ -397,9 +181,6 @@
     <t>Bank borrowings</t>
   </si>
   <si>
-    <t>4000</t>
-  </si>
-  <si>
     <t>facilities</t>
   </si>
   <si>
@@ -412,24 +193,6 @@
     <t>bank guarantees</t>
   </si>
   <si>
-    <t>52100</t>
-  </si>
-  <si>
-    <t>3273</t>
-  </si>
-  <si>
-    <t>48827</t>
-  </si>
-  <si>
-    <t>13500</t>
-  </si>
-  <si>
-    <t>1023</t>
-  </si>
-  <si>
-    <t>47077</t>
-  </si>
-  <si>
     <t>Multi-option facilities</t>
   </si>
   <si>
@@ -445,84 +208,6 @@
     <t>At31 December 2020</t>
   </si>
   <si>
-    <t>4343</t>
-  </si>
-  <si>
-    <t>541</t>
-  </si>
-  <si>
-    <t>4884</t>
-  </si>
-  <si>
-    <t>4846</t>
-  </si>
-  <si>
-    <t>38</t>
-  </si>
-  <si>
-    <t>3725</t>
-  </si>
-  <si>
-    <t>159</t>
-  </si>
-  <si>
-    <t>3884</t>
-  </si>
-  <si>
-    <t>865</t>
-  </si>
-  <si>
-    <t>(518)</t>
-  </si>
-  <si>
-    <t>347</t>
-  </si>
-  <si>
-    <t>4806</t>
-  </si>
-  <si>
-    <t>36032</t>
-  </si>
-  <si>
-    <t>(336)</t>
-  </si>
-  <si>
-    <t>40502</t>
-  </si>
-  <si>
-    <t>6983</t>
-  </si>
-  <si>
-    <t>1286</t>
-  </si>
-  <si>
-    <t>8269</t>
-  </si>
-  <si>
-    <t>729</t>
-  </si>
-  <si>
-    <t>7540</t>
-  </si>
-  <si>
-    <t>19857</t>
-  </si>
-  <si>
-    <t>38883</t>
-  </si>
-  <si>
-    <t>(854)</t>
-  </si>
-  <si>
-    <t>57886</t>
-  </si>
-  <si>
-    <t>9459</t>
-  </si>
-  <si>
-    <t>48427</t>
-  </si>
-  <si>
     <t>Employee benefits</t>
   </si>
   <si>
@@ -550,30 +235,9 @@
     <t>Lease liabilities</t>
   </si>
   <si>
-    <t>25569</t>
-  </si>
-  <si>
-    <t>2935</t>
-  </si>
-  <si>
-    <t>1053</t>
-  </si>
-  <si>
-    <t>29557</t>
-  </si>
-  <si>
-    <t>25662</t>
-  </si>
-  <si>
-    <t>3895</t>
-  </si>
-  <si>
     <t>155,299,534 ordinary shares issued and fully paid (2019: 155,299,534)</t>
   </si>
   <si>
-    <t>150997</t>
-  </si>
-  <si>
     <t>Cash flow hedge reserve</t>
   </si>
   <si>
@@ -592,48 +256,6 @@
     <t>Other reserve</t>
   </si>
   <si>
-    <t>29543</t>
-  </si>
-  <si>
-    <t>(31,598)</t>
-  </si>
-  <si>
-    <t>(2,055)</t>
-  </si>
-  <si>
-    <t>5922</t>
-  </si>
-  <si>
-    <t>(2,526)</t>
-  </si>
-  <si>
-    <t>325</t>
-  </si>
-  <si>
-    <t>35790</t>
-  </si>
-  <si>
-    <t>(40,046)</t>
-  </si>
-  <si>
-    <t>(4,256)</t>
-  </si>
-  <si>
-    <t>41448</t>
-  </si>
-  <si>
-    <t>(11,905)</t>
-  </si>
-  <si>
-    <t>3049</t>
-  </si>
-  <si>
-    <t>44822</t>
-  </si>
-  <si>
-    <t>(9,032)</t>
-  </si>
-  <si>
     <t>Type of goods</t>
   </si>
   <si>
@@ -658,33 +280,9 @@
     <t>Goods transferred at a point in time</t>
   </si>
   <si>
-    <t>214911</t>
-  </si>
-  <si>
-    <t>190814</t>
-  </si>
-  <si>
-    <t>24097</t>
-  </si>
-  <si>
-    <t>229785</t>
-  </si>
-  <si>
-    <t>197789</t>
-  </si>
-  <si>
-    <t>31996</t>
-  </si>
-  <si>
     <t>Commission revenue</t>
   </si>
   <si>
-    <t>775</t>
-  </si>
-  <si>
-    <t>780</t>
-  </si>
-  <si>
     <t>Government grants</t>
   </si>
   <si>
@@ -697,58 +295,13 @@
     <t>Other</t>
   </si>
   <si>
-    <t>13054</t>
-  </si>
-  <si>
-    <t>577</t>
-  </si>
-  <si>
-    <t>13631</t>
-  </si>
-  <si>
-    <t>5350</t>
-  </si>
-  <si>
-    <t>4202</t>
-  </si>
-  <si>
-    <t>95</t>
-  </si>
-  <si>
-    <t>497</t>
-  </si>
-  <si>
-    <t>10144</t>
-  </si>
-  <si>
     <t>Bank interest</t>
   </si>
   <si>
-    <t>60</t>
-  </si>
-  <si>
-    <t>170</t>
-  </si>
-  <si>
     <t>Interest expenses</t>
   </si>
   <si>
     <t>Discount unwind on the provision for asset retirement obligation</t>
-  </si>
-  <si>
-    <t>(203)</t>
-  </si>
-  <si>
-    <t>(539)</t>
-  </si>
-  <si>
-    <t>(303)</t>
-  </si>
-  <si>
-    <t>(315)</t>
-  </si>
-  <si>
-    <t>(618)</t>
   </si>
 </sst>
 </file>
@@ -1136,14 +689,14 @@
       <c r="A2" t="s">
         <v>6</v>
       </c>
-      <c r="C2" t="s">
-        <v>8</v>
+      <c r="C2">
+        <v>19589</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -1156,11 +709,14 @@
       <c r="B3" t="s">
         <v>7</v>
       </c>
+      <c r="C3">
+        <v>0</v>
+      </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -1170,14 +726,14 @@
       <c r="A4" t="s">
         <v>6</v>
       </c>
-      <c r="C4" t="s">
-        <v>9</v>
+      <c r="C4">
+        <v>28259</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F4">
         <v>2019</v>
@@ -1190,11 +746,14 @@
       <c r="B5" t="s">
         <v>7</v>
       </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -1218,7 +777,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -1233,7 +792,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -1241,22 +800,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B2" t="s">
-        <v>122</v>
-      </c>
-      <c r="D2" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="D2">
+        <v>52100</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F2" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H2">
         <v>2020</v>
@@ -1264,16 +823,19 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F3" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H3">
         <v>2020</v>
@@ -1281,22 +843,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
-      </c>
-      <c r="D4" t="s">
-        <v>127</v>
+        <v>52</v>
+      </c>
+      <c r="D4">
+        <v>3273</v>
       </c>
       <c r="E4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F4" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H4">
         <v>2020</v>
@@ -1304,22 +866,22 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>124</v>
-      </c>
-      <c r="D5" t="s">
-        <v>128</v>
+        <v>51</v>
+      </c>
+      <c r="D5">
+        <v>48827</v>
       </c>
       <c r="E5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F5" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H5">
         <v>2020</v>
@@ -1327,22 +889,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B6" t="s">
-        <v>122</v>
-      </c>
-      <c r="D6" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="D6">
+        <v>13500</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H6">
         <v>2020</v>
@@ -1350,16 +912,19 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="D7">
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H7">
         <v>2020</v>
@@ -1367,22 +932,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B8" t="s">
-        <v>125</v>
-      </c>
-      <c r="D8" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="D8">
+        <v>13500</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H8">
         <v>2020</v>
@@ -1390,19 +955,22 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B9" t="s">
-        <v>124</v>
+        <v>51</v>
+      </c>
+      <c r="D9">
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="H9">
         <v>2020</v>
@@ -1410,22 +978,22 @@
     </row>
     <row r="10" spans="1:8">
       <c r="A10" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B10" t="s">
-        <v>122</v>
-      </c>
-      <c r="D10" t="s">
-        <v>126</v>
+        <v>49</v>
+      </c>
+      <c r="D10">
+        <v>52100</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F10" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H10">
         <v>2019</v>
@@ -1433,19 +1001,19 @@
     </row>
     <row r="11" spans="1:8">
       <c r="A11" t="s">
-        <v>123</v>
-      </c>
-      <c r="D11" t="s">
-        <v>121</v>
+        <v>50</v>
+      </c>
+      <c r="D11">
+        <v>4000</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F11" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H11">
         <v>2019</v>
@@ -1453,22 +1021,22 @@
     </row>
     <row r="12" spans="1:8">
       <c r="A12" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B12" t="s">
-        <v>125</v>
-      </c>
-      <c r="D12" t="s">
-        <v>130</v>
+        <v>52</v>
+      </c>
+      <c r="D12">
+        <v>1023</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F12" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H12">
         <v>2019</v>
@@ -1476,22 +1044,22 @@
     </row>
     <row r="13" spans="1:8">
       <c r="A13" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B13" t="s">
-        <v>124</v>
-      </c>
-      <c r="D13" t="s">
-        <v>131</v>
+        <v>51</v>
+      </c>
+      <c r="D13">
+        <v>47077</v>
       </c>
       <c r="E13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F13" t="s">
-        <v>132</v>
+        <v>53</v>
       </c>
       <c r="G13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H13">
         <v>2019</v>
@@ -1499,22 +1067,22 @@
     </row>
     <row r="14" spans="1:8">
       <c r="A14" t="s">
-        <v>122</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
-        <v>122</v>
-      </c>
-      <c r="D14" t="s">
-        <v>129</v>
+        <v>49</v>
+      </c>
+      <c r="D14">
+        <v>13500</v>
       </c>
       <c r="E14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H14">
         <v>2019</v>
@@ -1522,16 +1090,19 @@
     </row>
     <row r="15" spans="1:8">
       <c r="A15" t="s">
-        <v>123</v>
+        <v>50</v>
+      </c>
+      <c r="D15">
+        <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F15" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H15">
         <v>2019</v>
@@ -1539,22 +1110,22 @@
     </row>
     <row r="16" spans="1:8">
       <c r="A16" t="s">
-        <v>123</v>
+        <v>50</v>
       </c>
       <c r="B16" t="s">
-        <v>125</v>
-      </c>
-      <c r="D16" t="s">
-        <v>129</v>
+        <v>52</v>
+      </c>
+      <c r="D16">
+        <v>13500</v>
       </c>
       <c r="E16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F16" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H16">
         <v>2019</v>
@@ -1562,19 +1133,22 @@
     </row>
     <row r="17" spans="1:8">
       <c r="A17" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>51</v>
+      </c>
+      <c r="D17">
+        <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F17" t="s">
-        <v>133</v>
+        <v>54</v>
       </c>
       <c r="G17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="H17">
         <v>2019</v>
@@ -1612,13 +1186,13 @@
     </row>
     <row r="2" spans="1:5">
       <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2">
+        <v>4343</v>
+      </c>
+      <c r="D2" t="s">
         <v>58</v>
-      </c>
-      <c r="C2" t="s">
-        <v>137</v>
-      </c>
-      <c r="D2" t="s">
-        <v>163</v>
       </c>
       <c r="E2">
         <v>2020</v>
@@ -1626,13 +1200,13 @@
     </row>
     <row r="3" spans="1:5">
       <c r="A3" t="s">
-        <v>134</v>
-      </c>
-      <c r="C3" t="s">
-        <v>138</v>
+        <v>55</v>
+      </c>
+      <c r="C3">
+        <v>541</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="E3">
         <v>2020</v>
@@ -1640,10 +1214,13 @@
     </row>
     <row r="4" spans="1:5">
       <c r="A4" t="s">
-        <v>135</v>
+        <v>56</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="E4">
         <v>2020</v>
@@ -1651,13 +1228,13 @@
     </row>
     <row r="5" spans="1:5">
       <c r="A5" t="s">
-        <v>136</v>
-      </c>
-      <c r="C5" t="s">
-        <v>139</v>
+        <v>57</v>
+      </c>
+      <c r="C5">
+        <v>4884</v>
       </c>
       <c r="D5" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="E5">
         <v>2020</v>
@@ -1665,13 +1242,13 @@
     </row>
     <row r="6" spans="1:5">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>140</v>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>4846</v>
       </c>
       <c r="D6" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="E6">
         <v>2020</v>
@@ -1679,13 +1256,13 @@
     </row>
     <row r="7" spans="1:5">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>141</v>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>38</v>
       </c>
       <c r="D7" t="s">
-        <v>163</v>
+        <v>58</v>
       </c>
       <c r="E7">
         <v>2020</v>
@@ -1693,13 +1270,13 @@
     </row>
     <row r="8" spans="1:5">
       <c r="A8" t="s">
-        <v>58</v>
-      </c>
-      <c r="C8" t="s">
-        <v>142</v>
+        <v>32</v>
+      </c>
+      <c r="C8">
+        <v>3725</v>
       </c>
       <c r="D8" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E8">
         <v>2020</v>
@@ -1707,13 +1284,13 @@
     </row>
     <row r="9" spans="1:5">
       <c r="A9" t="s">
-        <v>134</v>
-      </c>
-      <c r="C9" t="s">
-        <v>143</v>
+        <v>55</v>
+      </c>
+      <c r="C9">
+        <v>159</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E9">
         <v>2020</v>
@@ -1721,10 +1298,13 @@
     </row>
     <row r="10" spans="1:5">
       <c r="A10" t="s">
-        <v>135</v>
+        <v>56</v>
+      </c>
+      <c r="C10">
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E10">
         <v>2020</v>
@@ -1732,13 +1312,13 @@
     </row>
     <row r="11" spans="1:5">
       <c r="A11" t="s">
-        <v>136</v>
-      </c>
-      <c r="C11" t="s">
-        <v>144</v>
+        <v>57</v>
+      </c>
+      <c r="C11">
+        <v>3884</v>
       </c>
       <c r="D11" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E11">
         <v>2020</v>
@@ -1746,13 +1326,13 @@
     </row>
     <row r="12" spans="1:5">
       <c r="A12" t="s">
-        <v>29</v>
-      </c>
-      <c r="C12" t="s">
-        <v>144</v>
+        <v>15</v>
+      </c>
+      <c r="C12">
+        <v>3884</v>
       </c>
       <c r="D12" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E12">
         <v>2020</v>
@@ -1760,10 +1340,13 @@
     </row>
     <row r="13" spans="1:5">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>164</v>
+        <v>59</v>
       </c>
       <c r="E13">
         <v>2020</v>
@@ -1771,10 +1354,13 @@
     </row>
     <row r="14" spans="1:5">
       <c r="A14" t="s">
-        <v>58</v>
+        <v>32</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="E14">
         <v>2020</v>
@@ -1782,13 +1368,13 @@
     </row>
     <row r="15" spans="1:5">
       <c r="A15" t="s">
-        <v>134</v>
-      </c>
-      <c r="C15" t="s">
-        <v>145</v>
+        <v>55</v>
+      </c>
+      <c r="C15">
+        <v>865</v>
       </c>
       <c r="D15" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="E15">
         <v>2020</v>
@@ -1796,13 +1382,13 @@
     </row>
     <row r="16" spans="1:5">
       <c r="A16" t="s">
-        <v>135</v>
-      </c>
-      <c r="C16" t="s">
-        <v>146</v>
+        <v>56</v>
+      </c>
+      <c r="C16">
+        <v>-518</v>
       </c>
       <c r="D16" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>2020</v>
@@ -1810,13 +1396,13 @@
     </row>
     <row r="17" spans="1:5">
       <c r="A17" t="s">
-        <v>136</v>
-      </c>
-      <c r="C17" t="s">
-        <v>147</v>
+        <v>57</v>
+      </c>
+      <c r="C17">
+        <v>347</v>
       </c>
       <c r="D17" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="E17">
         <v>2020</v>
@@ -1824,10 +1410,13 @@
     </row>
     <row r="18" spans="1:5">
       <c r="A18" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="E18">
         <v>2020</v>
@@ -1835,13 +1424,13 @@
     </row>
     <row r="19" spans="1:5">
       <c r="A19" t="s">
-        <v>32</v>
-      </c>
-      <c r="C19" t="s">
-        <v>147</v>
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>347</v>
       </c>
       <c r="D19" t="s">
-        <v>165</v>
+        <v>60</v>
       </c>
       <c r="E19">
         <v>2020</v>
@@ -1849,13 +1438,13 @@
     </row>
     <row r="20" spans="1:5">
       <c r="A20" t="s">
-        <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>148</v>
+        <v>32</v>
+      </c>
+      <c r="C20">
+        <v>4806</v>
       </c>
       <c r="D20" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E20">
         <v>2020</v>
@@ -1863,13 +1452,13 @@
     </row>
     <row r="21" spans="1:5">
       <c r="A21" t="s">
-        <v>134</v>
-      </c>
-      <c r="C21" t="s">
-        <v>149</v>
+        <v>55</v>
+      </c>
+      <c r="C21">
+        <v>36032</v>
       </c>
       <c r="D21" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E21">
         <v>2020</v>
@@ -1877,13 +1466,13 @@
     </row>
     <row r="22" spans="1:5">
       <c r="A22" t="s">
-        <v>135</v>
-      </c>
-      <c r="C22" t="s">
-        <v>150</v>
+        <v>56</v>
+      </c>
+      <c r="C22">
+        <v>-336</v>
       </c>
       <c r="D22" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E22">
         <v>2020</v>
@@ -1891,13 +1480,13 @@
     </row>
     <row r="23" spans="1:5">
       <c r="A23" t="s">
-        <v>136</v>
-      </c>
-      <c r="C23" t="s">
-        <v>151</v>
+        <v>57</v>
+      </c>
+      <c r="C23">
+        <v>40502</v>
       </c>
       <c r="D23" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E23">
         <v>2020</v>
@@ -1905,10 +1494,13 @@
     </row>
     <row r="24" spans="1:5">
       <c r="A24" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>0</v>
       </c>
       <c r="D24" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E24">
         <v>2020</v>
@@ -1916,13 +1508,13 @@
     </row>
     <row r="25" spans="1:5">
       <c r="A25" t="s">
-        <v>32</v>
-      </c>
-      <c r="C25" t="s">
-        <v>151</v>
+        <v>18</v>
+      </c>
+      <c r="C25">
+        <v>40502</v>
       </c>
       <c r="D25" t="s">
-        <v>166</v>
+        <v>61</v>
       </c>
       <c r="E25">
         <v>2020</v>
@@ -1930,13 +1522,13 @@
     </row>
     <row r="26" spans="1:5">
       <c r="A26" t="s">
-        <v>58</v>
-      </c>
-      <c r="C26" t="s">
-        <v>152</v>
+        <v>32</v>
+      </c>
+      <c r="C26">
+        <v>6983</v>
       </c>
       <c r="D26" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="E26">
         <v>2020</v>
@@ -1944,13 +1536,13 @@
     </row>
     <row r="27" spans="1:5">
       <c r="A27" t="s">
-        <v>134</v>
-      </c>
-      <c r="C27" t="s">
-        <v>153</v>
+        <v>55</v>
+      </c>
+      <c r="C27">
+        <v>1286</v>
       </c>
       <c r="D27" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="E27">
         <v>2020</v>
@@ -1958,10 +1550,13 @@
     </row>
     <row r="28" spans="1:5">
       <c r="A28" t="s">
-        <v>135</v>
+        <v>56</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="E28">
         <v>2020</v>
@@ -1969,13 +1564,13 @@
     </row>
     <row r="29" spans="1:5">
       <c r="A29" t="s">
-        <v>136</v>
-      </c>
-      <c r="C29" t="s">
-        <v>154</v>
+        <v>57</v>
+      </c>
+      <c r="C29">
+        <v>8269</v>
       </c>
       <c r="D29" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="E29">
         <v>2020</v>
@@ -1983,13 +1578,13 @@
     </row>
     <row r="30" spans="1:5">
       <c r="A30" t="s">
-        <v>29</v>
-      </c>
-      <c r="C30" t="s">
-        <v>155</v>
+        <v>15</v>
+      </c>
+      <c r="C30">
+        <v>729</v>
       </c>
       <c r="D30" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="E30">
         <v>2020</v>
@@ -1997,13 +1592,13 @@
     </row>
     <row r="31" spans="1:5">
       <c r="A31" t="s">
-        <v>32</v>
-      </c>
-      <c r="C31" t="s">
-        <v>156</v>
+        <v>18</v>
+      </c>
+      <c r="C31">
+        <v>7540</v>
       </c>
       <c r="D31" t="s">
-        <v>167</v>
+        <v>62</v>
       </c>
       <c r="E31">
         <v>2020</v>
@@ -2011,13 +1606,13 @@
     </row>
     <row r="32" spans="1:5">
       <c r="A32" t="s">
-        <v>58</v>
-      </c>
-      <c r="C32" t="s">
-        <v>157</v>
+        <v>32</v>
+      </c>
+      <c r="C32">
+        <v>19857</v>
       </c>
       <c r="D32" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E32">
         <v>2020</v>
@@ -2025,13 +1620,13 @@
     </row>
     <row r="33" spans="1:5">
       <c r="A33" t="s">
-        <v>134</v>
-      </c>
-      <c r="C33" t="s">
-        <v>158</v>
+        <v>55</v>
+      </c>
+      <c r="C33">
+        <v>38883</v>
       </c>
       <c r="D33" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E33">
         <v>2020</v>
@@ -2039,13 +1634,13 @@
     </row>
     <row r="34" spans="1:5">
       <c r="A34" t="s">
-        <v>135</v>
-      </c>
-      <c r="C34" t="s">
-        <v>159</v>
+        <v>56</v>
+      </c>
+      <c r="C34">
+        <v>-854</v>
       </c>
       <c r="D34" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E34">
         <v>2020</v>
@@ -2053,13 +1648,13 @@
     </row>
     <row r="35" spans="1:5">
       <c r="A35" t="s">
-        <v>136</v>
-      </c>
-      <c r="C35" t="s">
-        <v>160</v>
+        <v>57</v>
+      </c>
+      <c r="C35">
+        <v>57886</v>
       </c>
       <c r="D35" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E35">
         <v>2020</v>
@@ -2067,13 +1662,13 @@
     </row>
     <row r="36" spans="1:5">
       <c r="A36" t="s">
-        <v>29</v>
-      </c>
-      <c r="C36" t="s">
-        <v>161</v>
+        <v>15</v>
+      </c>
+      <c r="C36">
+        <v>9459</v>
       </c>
       <c r="D36" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E36">
         <v>2020</v>
@@ -2081,13 +1676,13 @@
     </row>
     <row r="37" spans="1:5">
       <c r="A37" t="s">
-        <v>32</v>
-      </c>
-      <c r="C37" t="s">
-        <v>162</v>
+        <v>18</v>
+      </c>
+      <c r="C37">
+        <v>48427</v>
       </c>
       <c r="D37" t="s">
-        <v>168</v>
+        <v>63</v>
       </c>
       <c r="E37">
         <v>2020</v>
@@ -2128,16 +1723,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>169</v>
-      </c>
-      <c r="C2" t="s">
-        <v>172</v>
+        <v>64</v>
+      </c>
+      <c r="C2">
+        <v>25569</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2145,16 +1740,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C3" t="s">
-        <v>173</v>
+        <v>65</v>
+      </c>
+      <c r="C3">
+        <v>2935</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2162,30 +1757,30 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>171</v>
-      </c>
-      <c r="C4" t="s">
-        <v>174</v>
+        <v>66</v>
+      </c>
+      <c r="C4">
+        <v>1053</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
       </c>
     </row>
     <row r="5" spans="1:6">
-      <c r="C5" t="s">
-        <v>175</v>
+      <c r="C5">
+        <v>29557</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -2193,16 +1788,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>29</v>
-      </c>
-      <c r="C6" t="s">
-        <v>176</v>
+        <v>15</v>
+      </c>
+      <c r="C6">
+        <v>25662</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -2210,16 +1805,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="C7" t="s">
-        <v>177</v>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>3895</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -2260,16 +1855,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>178</v>
-      </c>
-      <c r="C2" t="s">
-        <v>179</v>
+        <v>67</v>
+      </c>
+      <c r="C2">
+        <v>150997</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2277,16 +1872,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>178</v>
-      </c>
-      <c r="C3" t="s">
-        <v>179</v>
+        <v>67</v>
+      </c>
+      <c r="C3">
+        <v>150997</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -2327,16 +1922,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="B2" t="s">
-        <v>180</v>
+        <v>68</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -2344,19 +1942,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B3" t="s">
-        <v>180</v>
-      </c>
-      <c r="C3" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="C3">
+        <v>29543</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -2364,19 +1962,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="B4" t="s">
-        <v>180</v>
-      </c>
-      <c r="C4" t="s">
-        <v>187</v>
+        <v>68</v>
+      </c>
+      <c r="C4">
+        <v>-31598</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -2384,19 +1982,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B5" t="s">
-        <v>180</v>
-      </c>
-      <c r="C5" t="s">
-        <v>188</v>
+        <v>68</v>
+      </c>
+      <c r="C5">
+        <v>-2055</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -2404,16 +2002,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="B6" t="s">
-        <v>180</v>
-      </c>
-      <c r="C6" t="s">
-        <v>11</v>
+        <v>68</v>
+      </c>
+      <c r="C6">
+        <v>2020</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -2421,16 +2019,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="B7" t="s">
-        <v>180</v>
-      </c>
-      <c r="C7" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -2438,16 +2036,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="B8" t="s">
-        <v>183</v>
+        <v>71</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -2455,19 +2056,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B9" t="s">
-        <v>183</v>
-      </c>
-      <c r="C9" t="s">
-        <v>189</v>
+        <v>71</v>
+      </c>
+      <c r="C9">
+        <v>5922</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -2475,19 +2076,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="B10" t="s">
-        <v>183</v>
-      </c>
-      <c r="C10" t="s">
-        <v>52</v>
+        <v>71</v>
+      </c>
+      <c r="C10">
+        <v>-8448</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -2495,19 +2096,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B11" t="s">
-        <v>183</v>
-      </c>
-      <c r="C11" t="s">
-        <v>190</v>
+        <v>71</v>
+      </c>
+      <c r="C11">
+        <v>-2526</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -2515,16 +2116,16 @@
     </row>
     <row r="12" spans="1:6">
       <c r="B12" t="s">
-        <v>183</v>
-      </c>
-      <c r="C12" t="s">
-        <v>11</v>
+        <v>71</v>
+      </c>
+      <c r="C12">
+        <v>2020</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -2532,16 +2133,16 @@
     </row>
     <row r="13" spans="1:6">
       <c r="B13" t="s">
-        <v>183</v>
-      </c>
-      <c r="C13" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -2549,16 +2150,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="B14" t="s">
-        <v>185</v>
+        <v>73</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -2566,19 +2170,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B15" t="s">
-        <v>185</v>
-      </c>
-      <c r="C15" t="s">
-        <v>191</v>
+        <v>73</v>
+      </c>
+      <c r="C15">
+        <v>325</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -2586,19 +2190,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B16" t="s">
-        <v>185</v>
-      </c>
-      <c r="C16" t="s">
-        <v>191</v>
+        <v>73</v>
+      </c>
+      <c r="C16">
+        <v>325</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F16">
         <v>2020</v>
@@ -2606,16 +2210,16 @@
     </row>
     <row r="17" spans="1:6">
       <c r="B17" t="s">
-        <v>185</v>
-      </c>
-      <c r="C17" t="s">
-        <v>11</v>
+        <v>73</v>
+      </c>
+      <c r="C17">
+        <v>2020</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -2623,16 +2227,16 @@
     </row>
     <row r="18" spans="1:6">
       <c r="B18" t="s">
-        <v>185</v>
-      </c>
-      <c r="C18" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="C18">
+        <v>0</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -2640,16 +2244,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B19" t="s">
-        <v>119</v>
+        <v>47</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -2657,19 +2264,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B20" t="s">
-        <v>119</v>
-      </c>
-      <c r="C20" t="s">
-        <v>192</v>
+        <v>47</v>
+      </c>
+      <c r="C20">
+        <v>35790</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F20">
         <v>2020</v>
@@ -2677,19 +2284,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="B21" t="s">
-        <v>119</v>
-      </c>
-      <c r="C21" t="s">
-        <v>193</v>
+        <v>47</v>
+      </c>
+      <c r="C21">
+        <v>-40046</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F21">
         <v>2020</v>
@@ -2697,19 +2304,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B22" t="s">
-        <v>119</v>
-      </c>
-      <c r="C22" t="s">
-        <v>194</v>
+        <v>47</v>
+      </c>
+      <c r="C22">
+        <v>-4256</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F22">
         <v>2020</v>
@@ -2717,16 +2324,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>180</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>180</v>
+        <v>68</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F23">
         <v>2019</v>
@@ -2734,19 +2344,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B24" t="s">
-        <v>180</v>
-      </c>
-      <c r="C24" t="s">
-        <v>195</v>
+        <v>68</v>
+      </c>
+      <c r="C24">
+        <v>41448</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F24">
         <v>2019</v>
@@ -2754,19 +2364,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="B25" t="s">
-        <v>180</v>
-      </c>
-      <c r="C25" t="s">
-        <v>196</v>
+        <v>68</v>
+      </c>
+      <c r="C25">
+        <v>-11905</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F25">
         <v>2019</v>
@@ -2774,19 +2384,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B26" t="s">
-        <v>180</v>
-      </c>
-      <c r="C26" t="s">
-        <v>186</v>
+        <v>68</v>
+      </c>
+      <c r="C26">
+        <v>29543</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F26">
         <v>2019</v>
@@ -2794,16 +2404,16 @@
     </row>
     <row r="27" spans="1:6">
       <c r="B27" t="s">
-        <v>180</v>
-      </c>
-      <c r="C27" t="s">
-        <v>12</v>
+        <v>68</v>
+      </c>
+      <c r="C27">
+        <v>2019</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F27">
         <v>2019</v>
@@ -2811,16 +2421,16 @@
     </row>
     <row r="28" spans="1:6">
       <c r="B28" t="s">
-        <v>180</v>
-      </c>
-      <c r="C28" t="s">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="C28">
+        <v>0</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F28">
         <v>2019</v>
@@ -2828,16 +2438,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>183</v>
+        <v>71</v>
       </c>
       <c r="B29" t="s">
-        <v>183</v>
+        <v>71</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F29">
         <v>2019</v>
@@ -2845,19 +2458,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
-        <v>183</v>
-      </c>
-      <c r="C30" t="s">
-        <v>197</v>
+        <v>71</v>
+      </c>
+      <c r="C30">
+        <v>3049</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F30">
         <v>2019</v>
@@ -2865,19 +2478,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>184</v>
+        <v>72</v>
       </c>
       <c r="B31" t="s">
-        <v>183</v>
-      </c>
-      <c r="C31" t="s">
-        <v>55</v>
+        <v>71</v>
+      </c>
+      <c r="C31">
+        <v>2873</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F31">
         <v>2019</v>
@@ -2885,19 +2498,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B32" t="s">
-        <v>183</v>
-      </c>
-      <c r="C32" t="s">
-        <v>189</v>
+        <v>71</v>
+      </c>
+      <c r="C32">
+        <v>5922</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F32">
         <v>2019</v>
@@ -2905,16 +2518,16 @@
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>183</v>
-      </c>
-      <c r="C33" t="s">
-        <v>12</v>
+        <v>71</v>
+      </c>
+      <c r="C33">
+        <v>2019</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F33">
         <v>2019</v>
@@ -2922,16 +2535,16 @@
     </row>
     <row r="34" spans="1:6">
       <c r="B34" t="s">
-        <v>183</v>
-      </c>
-      <c r="C34" t="s">
-        <v>10</v>
+        <v>71</v>
+      </c>
+      <c r="C34">
+        <v>0</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F34">
         <v>2019</v>
@@ -2939,16 +2552,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>185</v>
+        <v>73</v>
       </c>
       <c r="B35" t="s">
-        <v>185</v>
+        <v>73</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F35">
         <v>2019</v>
@@ -2956,19 +2572,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B36" t="s">
-        <v>185</v>
-      </c>
-      <c r="C36" t="s">
-        <v>191</v>
+        <v>73</v>
+      </c>
+      <c r="C36">
+        <v>325</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F36">
         <v>2019</v>
@@ -2976,19 +2592,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B37" t="s">
-        <v>185</v>
-      </c>
-      <c r="C37" t="s">
-        <v>191</v>
+        <v>73</v>
+      </c>
+      <c r="C37">
+        <v>325</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F37">
         <v>2019</v>
@@ -2996,16 +2612,16 @@
     </row>
     <row r="38" spans="1:6">
       <c r="B38" t="s">
-        <v>185</v>
-      </c>
-      <c r="C38" t="s">
-        <v>12</v>
+        <v>73</v>
+      </c>
+      <c r="C38">
+        <v>2019</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F38">
         <v>2019</v>
@@ -3013,16 +2629,16 @@
     </row>
     <row r="39" spans="1:6">
       <c r="B39" t="s">
-        <v>185</v>
-      </c>
-      <c r="C39" t="s">
-        <v>10</v>
+        <v>73</v>
+      </c>
+      <c r="C39">
+        <v>0</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F39">
         <v>2019</v>
@@ -3030,16 +2646,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>47</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F40">
         <v>2019</v>
@@ -3047,19 +2666,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>181</v>
+        <v>69</v>
       </c>
       <c r="B41" t="s">
-        <v>119</v>
-      </c>
-      <c r="C41" t="s">
-        <v>198</v>
+        <v>47</v>
+      </c>
+      <c r="C41">
+        <v>44822</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F41">
         <v>2019</v>
@@ -3067,19 +2686,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>182</v>
+        <v>70</v>
       </c>
       <c r="B42" t="s">
-        <v>119</v>
-      </c>
-      <c r="C42" t="s">
-        <v>199</v>
+        <v>47</v>
+      </c>
+      <c r="C42">
+        <v>-9032</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F42">
         <v>2019</v>
@@ -3087,19 +2706,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>51</v>
       </c>
       <c r="B43" t="s">
-        <v>119</v>
-      </c>
-      <c r="C43" t="s">
-        <v>192</v>
+        <v>47</v>
+      </c>
+      <c r="C43">
+        <v>35790</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F43">
         <v>2019</v>
@@ -3140,16 +2759,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="B2" t="s">
-        <v>200</v>
+        <v>74</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3157,19 +2779,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="B3" t="s">
-        <v>200</v>
-      </c>
-      <c r="C3" t="s">
-        <v>208</v>
+        <v>74</v>
+      </c>
+      <c r="C3">
+        <v>214911</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -3177,19 +2799,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B4" t="s">
-        <v>200</v>
-      </c>
-      <c r="C4" t="s">
-        <v>208</v>
+        <v>74</v>
+      </c>
+      <c r="C4">
+        <v>214911</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -3197,16 +2819,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
-        <v>203</v>
+        <v>77</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -3214,19 +2839,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="B6" t="s">
-        <v>203</v>
-      </c>
-      <c r="C6" t="s">
-        <v>209</v>
+        <v>77</v>
+      </c>
+      <c r="C6">
+        <v>190814</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -3234,19 +2859,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="B7" t="s">
-        <v>203</v>
-      </c>
-      <c r="C7" t="s">
-        <v>210</v>
+        <v>77</v>
+      </c>
+      <c r="C7">
+        <v>24097</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -3254,19 +2879,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B8" t="s">
-        <v>203</v>
-      </c>
-      <c r="C8" t="s">
-        <v>208</v>
+        <v>77</v>
+      </c>
+      <c r="C8">
+        <v>214911</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -3274,16 +2899,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>206</v>
+        <v>80</v>
+      </c>
+      <c r="C9">
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -3291,19 +2919,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="B10" t="s">
-        <v>206</v>
-      </c>
-      <c r="C10" t="s">
-        <v>208</v>
+        <v>80</v>
+      </c>
+      <c r="C10">
+        <v>214911</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -3311,19 +2939,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B11" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" t="s">
-        <v>208</v>
+        <v>80</v>
+      </c>
+      <c r="C11">
+        <v>214911</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -3331,16 +2959,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>74</v>
       </c>
       <c r="B12" t="s">
-        <v>200</v>
+        <v>74</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -3348,19 +2979,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>75</v>
       </c>
       <c r="B13" t="s">
-        <v>200</v>
-      </c>
-      <c r="C13" t="s">
-        <v>211</v>
+        <v>74</v>
+      </c>
+      <c r="C13">
+        <v>229785</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -3368,19 +2999,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B14" t="s">
-        <v>200</v>
-      </c>
-      <c r="C14" t="s">
-        <v>211</v>
+        <v>74</v>
+      </c>
+      <c r="C14">
+        <v>229785</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F14">
         <v>2019</v>
@@ -3388,16 +3019,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>203</v>
+        <v>77</v>
+      </c>
+      <c r="C15">
+        <v>0</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F15">
         <v>2019</v>
@@ -3405,19 +3039,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>204</v>
+        <v>78</v>
       </c>
       <c r="B16" t="s">
-        <v>203</v>
-      </c>
-      <c r="C16" t="s">
-        <v>212</v>
+        <v>77</v>
+      </c>
+      <c r="C16">
+        <v>197789</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F16">
         <v>2019</v>
@@ -3425,19 +3059,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>205</v>
+        <v>79</v>
       </c>
       <c r="B17" t="s">
-        <v>203</v>
-      </c>
-      <c r="C17" t="s">
-        <v>213</v>
+        <v>77</v>
+      </c>
+      <c r="C17">
+        <v>31996</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F17">
         <v>2019</v>
@@ -3445,19 +3079,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B18" t="s">
-        <v>203</v>
-      </c>
-      <c r="C18" t="s">
-        <v>211</v>
+        <v>77</v>
+      </c>
+      <c r="C18">
+        <v>229785</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F18">
         <v>2019</v>
@@ -3465,16 +3099,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>206</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>206</v>
+        <v>80</v>
+      </c>
+      <c r="C19">
+        <v>0</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F19">
         <v>2019</v>
@@ -3482,19 +3119,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>207</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
-        <v>206</v>
-      </c>
-      <c r="C20" t="s">
-        <v>211</v>
+        <v>80</v>
+      </c>
+      <c r="C20">
+        <v>229785</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F20">
         <v>2019</v>
@@ -3502,19 +3139,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>202</v>
+        <v>76</v>
       </c>
       <c r="B21" t="s">
-        <v>206</v>
-      </c>
-      <c r="C21" t="s">
-        <v>211</v>
+        <v>80</v>
+      </c>
+      <c r="C21">
+        <v>229785</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F21">
         <v>2019</v>
@@ -3555,16 +3192,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>214</v>
-      </c>
-      <c r="C2" t="s">
-        <v>215</v>
+        <v>82</v>
+      </c>
+      <c r="C2">
+        <v>775</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3572,16 +3209,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>214</v>
-      </c>
-      <c r="C3" t="s">
-        <v>216</v>
+        <v>82</v>
+      </c>
+      <c r="C3">
+        <v>780</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -3622,16 +3259,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>217</v>
-      </c>
-      <c r="C2" t="s">
-        <v>221</v>
+        <v>83</v>
+      </c>
+      <c r="C2">
+        <v>13054</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3639,13 +3276,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>218</v>
+        <v>84</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -3653,13 +3293,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>219</v>
+        <v>85</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -3667,30 +3310,30 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>220</v>
-      </c>
-      <c r="C5" t="s">
-        <v>222</v>
+        <v>86</v>
+      </c>
+      <c r="C5">
+        <v>577</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2020</v>
       </c>
     </row>
     <row r="6" spans="1:6">
-      <c r="C6" t="s">
-        <v>223</v>
+      <c r="C6">
+        <v>13631</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -3698,16 +3341,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>217</v>
-      </c>
-      <c r="C7" t="s">
-        <v>224</v>
+        <v>83</v>
+      </c>
+      <c r="C7">
+        <v>5350</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -3715,16 +3358,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>218</v>
-      </c>
-      <c r="C8" t="s">
-        <v>225</v>
+        <v>84</v>
+      </c>
+      <c r="C8">
+        <v>4202</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -3732,16 +3375,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>219</v>
-      </c>
-      <c r="C9" t="s">
-        <v>226</v>
+        <v>85</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -3749,30 +3392,30 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>220</v>
-      </c>
-      <c r="C10" t="s">
-        <v>227</v>
+        <v>86</v>
+      </c>
+      <c r="C10">
+        <v>497</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>2019</v>
       </c>
     </row>
     <row r="11" spans="1:6">
-      <c r="C11" t="s">
-        <v>228</v>
+      <c r="C11">
+        <v>10144</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -3813,16 +3456,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>229</v>
-      </c>
-      <c r="C2" t="s">
-        <v>230</v>
+        <v>87</v>
+      </c>
+      <c r="C2">
+        <v>60</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3830,16 +3473,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>229</v>
-      </c>
-      <c r="C3" t="s">
-        <v>231</v>
+        <v>87</v>
+      </c>
+      <c r="C3">
+        <v>170</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -3880,16 +3523,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>232</v>
-      </c>
-      <c r="C2" t="s">
-        <v>234</v>
+        <v>88</v>
+      </c>
+      <c r="C2">
+        <v>-203</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -3897,30 +3540,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>233</v>
-      </c>
-      <c r="C3" t="s">
-        <v>150</v>
+        <v>89</v>
+      </c>
+      <c r="C3">
+        <v>-336</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="C4" t="s">
-        <v>235</v>
+      <c r="C4">
+        <v>-539</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -3928,16 +3571,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>232</v>
-      </c>
-      <c r="C5" t="s">
-        <v>236</v>
+        <v>88</v>
+      </c>
+      <c r="C5">
+        <v>-303</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -3945,30 +3588,30 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>233</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
+        <v>89</v>
+      </c>
+      <c r="C6">
+        <v>-315</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" t="s">
-        <v>238</v>
+      <c r="C7">
+        <v>-618</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -4009,16 +3652,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
+        <v>11</v>
+      </c>
+      <c r="C2">
+        <v>1697</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4026,30 +3669,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>16</v>
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>11927</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="C4" t="s">
-        <v>17</v>
+      <c r="C4">
+        <v>13624</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -4057,16 +3700,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>18</v>
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>1390</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -4074,30 +3717,30 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>14</v>
-      </c>
-      <c r="C6" t="s">
-        <v>19</v>
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>10609</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" t="s">
-        <v>20</v>
+      <c r="C7">
+        <v>11999</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -4138,16 +3781,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="C2" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C2">
+        <v>18547</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4155,30 +3798,30 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>22</v>
-      </c>
-      <c r="C3" t="s">
-        <v>24</v>
+        <v>14</v>
+      </c>
+      <c r="C3">
+        <v>8651</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
       </c>
     </row>
     <row r="4" spans="1:6">
-      <c r="C4" t="s">
-        <v>25</v>
+      <c r="C4">
+        <v>27198</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -4186,16 +3829,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>21</v>
-      </c>
-      <c r="C5" t="s">
-        <v>26</v>
+        <v>13</v>
+      </c>
+      <c r="C5">
+        <v>19816</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F5">
         <v>2019</v>
@@ -4203,30 +3846,30 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C6" t="s">
-        <v>27</v>
+        <v>14</v>
+      </c>
+      <c r="C6">
+        <v>7137</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2019</v>
       </c>
     </row>
     <row r="7" spans="1:6">
-      <c r="C7" t="s">
-        <v>28</v>
+      <c r="C7">
+        <v>26953</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -4267,16 +3910,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B2" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4284,16 +3930,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C3">
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -4301,16 +3950,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -4318,13 +3970,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="B5" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4332,16 +3987,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C6">
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -4349,16 +4007,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C7">
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -4366,16 +4027,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="B8" t="s">
-        <v>29</v>
+        <v>15</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -4383,19 +4047,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>16</v>
       </c>
       <c r="B9" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" t="s">
-        <v>33</v>
+        <v>15</v>
+      </c>
+      <c r="C9">
+        <v>51</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -4403,19 +4067,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B10" t="s">
-        <v>29</v>
-      </c>
-      <c r="C10" t="s">
-        <v>34</v>
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>29702</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F10">
         <v>2019</v>
@@ -4423,16 +4087,16 @@
     </row>
     <row r="11" spans="1:6">
       <c r="B11" t="s">
-        <v>29</v>
-      </c>
-      <c r="C11" t="s">
-        <v>35</v>
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>29753</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F11">
         <v>2019</v>
@@ -4440,16 +4104,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>18</v>
       </c>
       <c r="B12" t="s">
-        <v>32</v>
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F12">
         <v>2019</v>
@@ -4457,19 +4124,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>31</v>
+        <v>17</v>
       </c>
       <c r="B13" t="s">
-        <v>32</v>
-      </c>
-      <c r="C13" t="s">
-        <v>36</v>
+        <v>18</v>
+      </c>
+      <c r="C13">
+        <v>12453</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F13">
         <v>2019</v>
@@ -4493,7 +4160,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>37</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -4508,7 +4175,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="H1" s="1" t="s">
         <v>5</v>
@@ -4516,19 +4183,22 @@
     </row>
     <row r="2" spans="1:8">
       <c r="A2" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C2" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H2">
         <v>2020</v>
@@ -4536,25 +4206,25 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B3" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="D3">
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H3">
         <v>2020</v>
@@ -4562,19 +4232,22 @@
     </row>
     <row r="4" spans="1:8">
       <c r="A4" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C4" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="D4">
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H4">
         <v>2019</v>
@@ -4582,25 +4255,25 @@
     </row>
     <row r="5" spans="1:8">
       <c r="A5" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D5" t="s">
-        <v>42</v>
+        <v>21</v>
+      </c>
+      <c r="D5">
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>45</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H5">
         <v>2019</v>
@@ -4608,19 +4281,22 @@
     </row>
     <row r="6" spans="1:8">
       <c r="A6" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="D6">
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F6" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H6">
         <v>2020</v>
@@ -4628,25 +4304,25 @@
     </row>
     <row r="7" spans="1:8">
       <c r="A7" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B7" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C7" t="s">
-        <v>39</v>
-      </c>
-      <c r="D7" t="s">
-        <v>43</v>
+        <v>21</v>
+      </c>
+      <c r="D7">
+        <v>47672</v>
       </c>
       <c r="E7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H7">
         <v>2020</v>
@@ -4654,19 +4330,22 @@
     </row>
     <row r="8" spans="1:8">
       <c r="A8" t="s">
-        <v>39</v>
+        <v>21</v>
       </c>
       <c r="C8" t="s">
-        <v>39</v>
+        <v>21</v>
+      </c>
+      <c r="D8">
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H8">
         <v>2019</v>
@@ -4674,25 +4353,25 @@
     </row>
     <row r="9" spans="1:8">
       <c r="A9" t="s">
-        <v>40</v>
+        <v>22</v>
       </c>
       <c r="B9" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C9" t="s">
-        <v>39</v>
-      </c>
-      <c r="D9" t="s">
-        <v>44</v>
+        <v>21</v>
+      </c>
+      <c r="D9">
+        <v>54535</v>
       </c>
       <c r="E9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="F9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="H9">
         <v>2019</v>
@@ -4733,16 +4412,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>47</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
+        <v>26</v>
+      </c>
+      <c r="C2">
+        <v>54535</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4750,16 +4429,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>48</v>
-      </c>
-      <c r="C3" t="s">
-        <v>51</v>
+        <v>27</v>
+      </c>
+      <c r="C3">
+        <v>1586</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -4767,16 +4446,16 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>49</v>
-      </c>
-      <c r="C4" t="s">
-        <v>52</v>
+        <v>28</v>
+      </c>
+      <c r="C4">
+        <v>-8448</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -4784,16 +4463,16 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" t="s">
-        <v>43</v>
+        <v>29</v>
+      </c>
+      <c r="C5">
+        <v>47672</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -4801,16 +4480,16 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C6" t="s">
-        <v>53</v>
+        <v>26</v>
+      </c>
+      <c r="C6">
+        <v>59249</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F6">
         <v>2019</v>
@@ -4818,16 +4497,16 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>48</v>
-      </c>
-      <c r="C7" t="s">
-        <v>54</v>
+        <v>27</v>
+      </c>
+      <c r="C7">
+        <v>-7587</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F7">
         <v>2019</v>
@@ -4835,16 +4514,16 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>49</v>
-      </c>
-      <c r="C8" t="s">
-        <v>55</v>
+        <v>28</v>
+      </c>
+      <c r="C8">
+        <v>2873</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F8">
         <v>2019</v>
@@ -4852,16 +4531,16 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>50</v>
-      </c>
-      <c r="C9" t="s">
-        <v>44</v>
+        <v>29</v>
+      </c>
+      <c r="C9">
+        <v>54535</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F9">
         <v>2019</v>
@@ -4902,16 +4581,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C2" t="s">
-        <v>43</v>
+        <v>30</v>
+      </c>
+      <c r="C2">
+        <v>47672</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4919,16 +4598,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" t="s">
-        <v>44</v>
+        <v>30</v>
+      </c>
+      <c r="C3">
+        <v>54535</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2019</v>
@@ -4969,16 +4648,19 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -4986,19 +4668,19 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" t="s">
-        <v>69</v>
+        <v>31</v>
+      </c>
+      <c r="C3">
+        <v>90430</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F3">
         <v>2020</v>
@@ -5006,19 +4688,19 @@
     </row>
     <row r="4" spans="1:6">
       <c r="A4" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
-      </c>
-      <c r="C4" t="s">
-        <v>70</v>
+        <v>31</v>
+      </c>
+      <c r="C4">
+        <v>376</v>
       </c>
       <c r="D4" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E4" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F4">
         <v>2020</v>
@@ -5026,19 +4708,19 @@
     </row>
     <row r="5" spans="1:6">
       <c r="A5" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B5" t="s">
-        <v>57</v>
-      </c>
-      <c r="C5" t="s">
-        <v>71</v>
+        <v>31</v>
+      </c>
+      <c r="C5">
+        <v>-149</v>
       </c>
       <c r="D5" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E5" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F5">
         <v>2020</v>
@@ -5046,19 +4728,19 @@
     </row>
     <row r="6" spans="1:6">
       <c r="A6" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B6" t="s">
-        <v>57</v>
-      </c>
-      <c r="C6" t="s">
-        <v>72</v>
+        <v>31</v>
+      </c>
+      <c r="C6">
+        <v>74</v>
       </c>
       <c r="D6" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F6">
         <v>2020</v>
@@ -5066,19 +4748,19 @@
     </row>
     <row r="7" spans="1:6">
       <c r="A7" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B7" t="s">
-        <v>57</v>
-      </c>
-      <c r="C7" t="s">
-        <v>73</v>
+        <v>31</v>
+      </c>
+      <c r="C7">
+        <v>90731</v>
       </c>
       <c r="D7" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F7">
         <v>2020</v>
@@ -5086,16 +4768,19 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B8" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C8">
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F8">
         <v>2020</v>
@@ -5103,19 +4788,19 @@
     </row>
     <row r="9" spans="1:6">
       <c r="A9" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B9" t="s">
-        <v>63</v>
-      </c>
-      <c r="C9" t="s">
-        <v>74</v>
+        <v>37</v>
+      </c>
+      <c r="C9">
+        <v>90235</v>
       </c>
       <c r="D9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F9">
         <v>2020</v>
@@ -5123,19 +4808,19 @@
     </row>
     <row r="10" spans="1:6">
       <c r="A10" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B10" t="s">
-        <v>63</v>
-      </c>
-      <c r="C10" t="s">
-        <v>75</v>
+        <v>37</v>
+      </c>
+      <c r="C10">
+        <v>57</v>
       </c>
       <c r="D10" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F10">
         <v>2020</v>
@@ -5143,19 +4828,19 @@
     </row>
     <row r="11" spans="1:6">
       <c r="A11" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>63</v>
-      </c>
-      <c r="C11" t="s">
-        <v>76</v>
+        <v>37</v>
+      </c>
+      <c r="C11">
+        <v>351</v>
       </c>
       <c r="D11" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F11">
         <v>2020</v>
@@ -5163,19 +4848,19 @@
     </row>
     <row r="12" spans="1:6">
       <c r="A12" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B12" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" t="s">
-        <v>77</v>
+        <v>37</v>
+      </c>
+      <c r="C12">
+        <v>-154</v>
       </c>
       <c r="D12" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F12">
         <v>2020</v>
@@ -5183,19 +4868,19 @@
     </row>
     <row r="13" spans="1:6">
       <c r="A13" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B13" t="s">
-        <v>63</v>
-      </c>
-      <c r="C13" t="s">
-        <v>78</v>
+        <v>37</v>
+      </c>
+      <c r="C13">
+        <v>90489</v>
       </c>
       <c r="D13" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E13" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F13">
         <v>2020</v>
@@ -5203,16 +4888,19 @@
     </row>
     <row r="14" spans="1:6">
       <c r="A14" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C14">
+        <v>0</v>
       </c>
       <c r="D14" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E14" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F14">
         <v>2020</v>
@@ -5220,19 +4908,19 @@
     </row>
     <row r="15" spans="1:6">
       <c r="A15" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B15" t="s">
-        <v>67</v>
-      </c>
-      <c r="C15" t="s">
-        <v>79</v>
+        <v>41</v>
+      </c>
+      <c r="C15">
+        <v>242</v>
       </c>
       <c r="D15" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E15" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F15">
         <v>2020</v>
@@ -5240,19 +4928,19 @@
     </row>
     <row r="16" spans="1:6">
       <c r="A16" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B16" t="s">
-        <v>67</v>
-      </c>
-      <c r="C16" t="s">
-        <v>80</v>
+        <v>41</v>
+      </c>
+      <c r="C16">
+        <v>195</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>115</v>
+        <v>43</v>
       </c>
       <c r="F16">
         <v>2019</v>
@@ -5260,16 +4948,19 @@
     </row>
     <row r="17" spans="1:6">
       <c r="A17" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C17">
+        <v>0</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F17">
         <v>2020</v>
@@ -5277,19 +4968,19 @@
     </row>
     <row r="18" spans="1:6">
       <c r="A18" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>57</v>
-      </c>
-      <c r="C18" t="s">
-        <v>81</v>
+        <v>31</v>
+      </c>
+      <c r="C18">
+        <v>314181</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F18">
         <v>2020</v>
@@ -5297,19 +4988,19 @@
     </row>
     <row r="19" spans="1:6">
       <c r="A19" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>57</v>
-      </c>
-      <c r="C19" t="s">
-        <v>82</v>
+        <v>31</v>
+      </c>
+      <c r="C19">
+        <v>5232</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F19">
         <v>2020</v>
@@ -5317,19 +5008,19 @@
     </row>
     <row r="20" spans="1:6">
       <c r="A20" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B20" t="s">
-        <v>57</v>
-      </c>
-      <c r="C20" t="s">
-        <v>83</v>
+        <v>31</v>
+      </c>
+      <c r="C20">
+        <v>-1122</v>
       </c>
       <c r="D20" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F20">
         <v>2020</v>
@@ -5337,19 +5028,19 @@
     </row>
     <row r="21" spans="1:6">
       <c r="A21" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
-      </c>
-      <c r="C21" t="s">
-        <v>84</v>
+        <v>31</v>
+      </c>
+      <c r="C21">
+        <v>-74</v>
       </c>
       <c r="D21" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F21">
         <v>2020</v>
@@ -5357,19 +5048,19 @@
     </row>
     <row r="22" spans="1:6">
       <c r="A22" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B22" t="s">
-        <v>57</v>
-      </c>
-      <c r="C22" t="s">
-        <v>85</v>
+        <v>31</v>
+      </c>
+      <c r="C22">
+        <v>318217</v>
       </c>
       <c r="D22" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E22" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F22">
         <v>2020</v>
@@ -5377,16 +5068,19 @@
     </row>
     <row r="23" spans="1:6">
       <c r="A23" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B23" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C23">
+        <v>0</v>
       </c>
       <c r="D23" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E23" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F23">
         <v>2020</v>
@@ -5394,19 +5088,19 @@
     </row>
     <row r="24" spans="1:6">
       <c r="A24" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B24" t="s">
-        <v>63</v>
-      </c>
-      <c r="C24" t="s">
-        <v>86</v>
+        <v>37</v>
+      </c>
+      <c r="C24">
+        <v>312388</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E24" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F24">
         <v>2020</v>
@@ -5414,19 +5108,19 @@
     </row>
     <row r="25" spans="1:6">
       <c r="A25" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B25" t="s">
-        <v>63</v>
-      </c>
-      <c r="C25" t="s">
-        <v>87</v>
+        <v>37</v>
+      </c>
+      <c r="C25">
+        <v>827</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E25" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F25">
         <v>2020</v>
@@ -5434,19 +5128,19 @@
     </row>
     <row r="26" spans="1:6">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B26" t="s">
-        <v>63</v>
-      </c>
-      <c r="C26" t="s">
-        <v>88</v>
+        <v>37</v>
+      </c>
+      <c r="C26">
+        <v>4618</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E26" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F26">
         <v>2020</v>
@@ -5454,19 +5148,19 @@
     </row>
     <row r="27" spans="1:6">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
-      </c>
-      <c r="C27" t="s">
-        <v>89</v>
+        <v>37</v>
+      </c>
+      <c r="C27">
+        <v>-1182</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E27" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F27">
         <v>2020</v>
@@ -5474,19 +5168,19 @@
     </row>
     <row r="28" spans="1:6">
       <c r="A28" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B28" t="s">
-        <v>63</v>
-      </c>
-      <c r="C28" t="s">
-        <v>90</v>
+        <v>37</v>
+      </c>
+      <c r="C28">
+        <v>316651</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E28" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F28">
         <v>2020</v>
@@ -5494,16 +5188,19 @@
     </row>
     <row r="29" spans="1:6">
       <c r="A29" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B29" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C29">
+        <v>0</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E29" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F29">
         <v>2020</v>
@@ -5511,19 +5208,19 @@
     </row>
     <row r="30" spans="1:6">
       <c r="A30" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
-      </c>
-      <c r="C30" t="s">
-        <v>91</v>
+        <v>41</v>
+      </c>
+      <c r="C30">
+        <v>1566</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E30" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F30">
         <v>2020</v>
@@ -5531,19 +5228,19 @@
     </row>
     <row r="31" spans="1:6">
       <c r="A31" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B31" t="s">
-        <v>67</v>
-      </c>
-      <c r="C31" t="s">
-        <v>92</v>
+        <v>41</v>
+      </c>
+      <c r="C31">
+        <v>1793</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E31" t="s">
-        <v>116</v>
+        <v>44</v>
       </c>
       <c r="F31">
         <v>2019</v>
@@ -5551,16 +5248,19 @@
     </row>
     <row r="32" spans="1:6">
       <c r="A32" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B32" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C32">
+        <v>0</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E32" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F32">
         <v>2020</v>
@@ -5568,19 +5268,19 @@
     </row>
     <row r="33" spans="1:6">
       <c r="A33" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B33" t="s">
-        <v>57</v>
-      </c>
-      <c r="C33" t="s">
-        <v>93</v>
+        <v>31</v>
+      </c>
+      <c r="C33">
+        <v>1628</v>
       </c>
       <c r="D33" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E33" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F33">
         <v>2020</v>
@@ -5588,19 +5288,19 @@
     </row>
     <row r="34" spans="1:6">
       <c r="A34" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B34" t="s">
-        <v>57</v>
-      </c>
-      <c r="C34" t="s">
-        <v>94</v>
+        <v>31</v>
+      </c>
+      <c r="C34">
+        <v>34643</v>
       </c>
       <c r="D34" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E34" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F34">
         <v>2020</v>
@@ -5608,16 +5308,19 @@
     </row>
     <row r="35" spans="1:6">
       <c r="A35" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B35" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C35">
+        <v>0</v>
       </c>
       <c r="D35" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E35" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F35">
         <v>2020</v>
@@ -5625,16 +5328,19 @@
     </row>
     <row r="36" spans="1:6">
       <c r="A36" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B36" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C36">
+        <v>0</v>
       </c>
       <c r="D36" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E36" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F36">
         <v>2020</v>
@@ -5642,19 +5348,19 @@
     </row>
     <row r="37" spans="1:6">
       <c r="A37" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B37" t="s">
-        <v>57</v>
-      </c>
-      <c r="C37" t="s">
-        <v>95</v>
+        <v>31</v>
+      </c>
+      <c r="C37">
+        <v>36271</v>
       </c>
       <c r="D37" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E37" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F37">
         <v>2020</v>
@@ -5662,16 +5368,19 @@
     </row>
     <row r="38" spans="1:6">
       <c r="A38" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B38" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C38">
+        <v>0</v>
       </c>
       <c r="D38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E38" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F38">
         <v>2020</v>
@@ -5679,19 +5388,19 @@
     </row>
     <row r="39" spans="1:6">
       <c r="A39" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B39" t="s">
-        <v>63</v>
-      </c>
-      <c r="C39" t="s">
-        <v>93</v>
+        <v>37</v>
+      </c>
+      <c r="C39">
+        <v>1628</v>
       </c>
       <c r="D39" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E39" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F39">
         <v>2020</v>
@@ -5699,16 +5408,19 @@
     </row>
     <row r="40" spans="1:6">
       <c r="A40" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C40">
+        <v>0</v>
       </c>
       <c r="D40" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E40" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F40">
         <v>2020</v>
@@ -5716,19 +5428,19 @@
     </row>
     <row r="41" spans="1:6">
       <c r="A41" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>63</v>
-      </c>
-      <c r="C41" t="s">
-        <v>96</v>
+        <v>37</v>
+      </c>
+      <c r="C41">
+        <v>20598</v>
       </c>
       <c r="D41" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E41" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F41">
         <v>2020</v>
@@ -5736,16 +5448,19 @@
     </row>
     <row r="42" spans="1:6">
       <c r="A42" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B42" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C42">
+        <v>0</v>
       </c>
       <c r="D42" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E42" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F42">
         <v>2020</v>
@@ -5753,19 +5468,19 @@
     </row>
     <row r="43" spans="1:6">
       <c r="A43" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B43" t="s">
-        <v>63</v>
-      </c>
-      <c r="C43" t="s">
-        <v>97</v>
+        <v>37</v>
+      </c>
+      <c r="C43">
+        <v>22226</v>
       </c>
       <c r="D43" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E43" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F43">
         <v>2020</v>
@@ -5773,16 +5488,19 @@
     </row>
     <row r="44" spans="1:6">
       <c r="A44" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B44" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C44">
+        <v>0</v>
       </c>
       <c r="D44" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E44" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F44">
         <v>2020</v>
@@ -5790,19 +5508,19 @@
     </row>
     <row r="45" spans="1:6">
       <c r="A45" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B45" t="s">
-        <v>67</v>
-      </c>
-      <c r="C45" t="s">
-        <v>98</v>
+        <v>41</v>
+      </c>
+      <c r="C45">
+        <v>14045</v>
       </c>
       <c r="D45" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E45" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F45">
         <v>2020</v>
@@ -5810,19 +5528,19 @@
     </row>
     <row r="46" spans="1:6">
       <c r="A46" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B46" t="s">
-        <v>67</v>
-      </c>
-      <c r="C46" t="s">
-        <v>99</v>
+        <v>41</v>
+      </c>
+      <c r="C46">
+        <v>1743</v>
       </c>
       <c r="D46" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E46" t="s">
-        <v>117</v>
+        <v>45</v>
       </c>
       <c r="F46">
         <v>2019</v>
@@ -5830,16 +5548,19 @@
     </row>
     <row r="47" spans="1:6">
       <c r="A47" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B47" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C47">
+        <v>0</v>
       </c>
       <c r="D47" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E47" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F47">
         <v>2020</v>
@@ -5847,19 +5568,19 @@
     </row>
     <row r="48" spans="1:6">
       <c r="A48" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B48" t="s">
-        <v>57</v>
-      </c>
-      <c r="C48" t="s">
-        <v>100</v>
+        <v>31</v>
+      </c>
+      <c r="C48">
+        <v>2538</v>
       </c>
       <c r="D48" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E48" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F48">
         <v>2020</v>
@@ -5867,16 +5588,19 @@
     </row>
     <row r="49" spans="1:6">
       <c r="A49" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B49" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C49">
+        <v>0</v>
       </c>
       <c r="D49" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E49" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F49">
         <v>2020</v>
@@ -5884,19 +5608,19 @@
     </row>
     <row r="50" spans="1:6">
       <c r="A50" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B50" t="s">
-        <v>57</v>
-      </c>
-      <c r="C50" t="s">
-        <v>101</v>
+        <v>31</v>
+      </c>
+      <c r="C50">
+        <v>-65</v>
       </c>
       <c r="D50" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E50" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F50">
         <v>2020</v>
@@ -5904,16 +5628,19 @@
     </row>
     <row r="51" spans="1:6">
       <c r="A51" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B51" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C51">
+        <v>0</v>
       </c>
       <c r="D51" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E51" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F51">
         <v>2020</v>
@@ -5921,19 +5648,19 @@
     </row>
     <row r="52" spans="1:6">
       <c r="A52" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B52" t="s">
-        <v>57</v>
-      </c>
-      <c r="C52" t="s">
-        <v>102</v>
+        <v>31</v>
+      </c>
+      <c r="C52">
+        <v>2473</v>
       </c>
       <c r="D52" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E52" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F52">
         <v>2020</v>
@@ -5941,16 +5668,19 @@
     </row>
     <row r="53" spans="1:6">
       <c r="A53" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B53" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C53">
+        <v>0</v>
       </c>
       <c r="D53" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E53" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F53">
         <v>2020</v>
@@ -5958,19 +5688,19 @@
     </row>
     <row r="54" spans="1:6">
       <c r="A54" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B54" t="s">
-        <v>63</v>
-      </c>
-      <c r="C54" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="C54">
+        <v>795</v>
       </c>
       <c r="D54" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E54" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F54">
         <v>2020</v>
@@ -5978,16 +5708,19 @@
     </row>
     <row r="55" spans="1:6">
       <c r="A55" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B55" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C55">
+        <v>0</v>
       </c>
       <c r="D55" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E55" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F55">
         <v>2020</v>
@@ -5995,16 +5728,19 @@
     </row>
     <row r="56" spans="1:6">
       <c r="A56" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B56" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C56">
+        <v>0</v>
       </c>
       <c r="D56" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E56" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F56">
         <v>2020</v>
@@ -6012,16 +5748,19 @@
     </row>
     <row r="57" spans="1:6">
       <c r="A57" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B57" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>0</v>
       </c>
       <c r="D57" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E57" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F57">
         <v>2020</v>
@@ -6029,19 +5768,19 @@
     </row>
     <row r="58" spans="1:6">
       <c r="A58" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B58" t="s">
-        <v>63</v>
-      </c>
-      <c r="C58" t="s">
-        <v>103</v>
+        <v>37</v>
+      </c>
+      <c r="C58">
+        <v>795</v>
       </c>
       <c r="D58" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E58" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F58">
         <v>2020</v>
@@ -6049,16 +5788,19 @@
     </row>
     <row r="59" spans="1:6">
       <c r="A59" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B59" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C59">
+        <v>0</v>
       </c>
       <c r="D59" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E59" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F59">
         <v>2020</v>
@@ -6066,19 +5808,19 @@
     </row>
     <row r="60" spans="1:6">
       <c r="A60" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B60" t="s">
-        <v>67</v>
-      </c>
-      <c r="C60" t="s">
-        <v>104</v>
+        <v>41</v>
+      </c>
+      <c r="C60">
+        <v>1678</v>
       </c>
       <c r="D60" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E60" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F60">
         <v>2020</v>
@@ -6086,16 +5828,19 @@
     </row>
     <row r="61" spans="1:6">
       <c r="A61" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B61" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C61">
+        <v>0</v>
       </c>
       <c r="D61" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E61" t="s">
-        <v>118</v>
+        <v>46</v>
       </c>
       <c r="F61">
         <v>2019</v>
@@ -6103,16 +5848,19 @@
     </row>
     <row r="62" spans="1:6">
       <c r="A62" t="s">
-        <v>57</v>
+        <v>31</v>
       </c>
       <c r="B62" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C62">
+        <v>0</v>
       </c>
       <c r="D62" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E62" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F62">
         <v>2020</v>
@@ -6120,19 +5868,19 @@
     </row>
     <row r="63" spans="1:6">
       <c r="A63" t="s">
-        <v>58</v>
+        <v>32</v>
       </c>
       <c r="B63" t="s">
-        <v>57</v>
-      </c>
-      <c r="C63" t="s">
-        <v>105</v>
+        <v>31</v>
+      </c>
+      <c r="C63">
+        <v>408777</v>
       </c>
       <c r="D63" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E63" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F63">
         <v>2020</v>
@@ -6140,19 +5888,19 @@
     </row>
     <row r="64" spans="1:6">
       <c r="A64" t="s">
-        <v>59</v>
+        <v>33</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
-      </c>
-      <c r="C64" t="s">
-        <v>106</v>
+        <v>31</v>
+      </c>
+      <c r="C64">
+        <v>40251</v>
       </c>
       <c r="D64" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E64" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F64">
         <v>2020</v>
@@ -6160,19 +5908,19 @@
     </row>
     <row r="65" spans="1:6">
       <c r="A65" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B65" t="s">
-        <v>57</v>
-      </c>
-      <c r="C65" t="s">
-        <v>107</v>
+        <v>31</v>
+      </c>
+      <c r="C65">
+        <v>-1336</v>
       </c>
       <c r="D65" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E65" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F65">
         <v>2020</v>
@@ -6180,16 +5928,19 @@
     </row>
     <row r="66" spans="1:6">
       <c r="A66" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>31</v>
+      </c>
+      <c r="C66">
+        <v>0</v>
       </c>
       <c r="D66" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E66" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F66">
         <v>2020</v>
@@ -6197,19 +5948,19 @@
     </row>
     <row r="67" spans="1:6">
       <c r="A67" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B67" t="s">
-        <v>57</v>
-      </c>
-      <c r="C67" t="s">
-        <v>108</v>
+        <v>31</v>
+      </c>
+      <c r="C67">
+        <v>447692</v>
       </c>
       <c r="D67" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E67" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F67">
         <v>2020</v>
@@ -6217,16 +5968,19 @@
     </row>
     <row r="68" spans="1:6">
       <c r="A68" t="s">
-        <v>63</v>
+        <v>37</v>
       </c>
       <c r="B68" t="s">
-        <v>63</v>
+        <v>37</v>
+      </c>
+      <c r="C68">
+        <v>0</v>
       </c>
       <c r="D68" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E68" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F68">
         <v>2020</v>
@@ -6234,19 +5988,19 @@
     </row>
     <row r="69" spans="1:6">
       <c r="A69" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="B69" t="s">
-        <v>63</v>
-      </c>
-      <c r="C69" t="s">
-        <v>109</v>
+        <v>37</v>
+      </c>
+      <c r="C69">
+        <v>405046</v>
       </c>
       <c r="D69" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E69" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F69">
         <v>2020</v>
@@ -6254,19 +6008,19 @@
     </row>
     <row r="70" spans="1:6">
       <c r="A70" t="s">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="B70" t="s">
-        <v>63</v>
-      </c>
-      <c r="C70" t="s">
-        <v>110</v>
+        <v>37</v>
+      </c>
+      <c r="C70">
+        <v>884</v>
       </c>
       <c r="D70" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E70" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F70">
         <v>2020</v>
@@ -6274,19 +6028,19 @@
     </row>
     <row r="71" spans="1:6">
       <c r="A71" t="s">
-        <v>66</v>
+        <v>40</v>
       </c>
       <c r="B71" t="s">
-        <v>63</v>
-      </c>
-      <c r="C71" t="s">
-        <v>111</v>
+        <v>37</v>
+      </c>
+      <c r="C71">
+        <v>25567</v>
       </c>
       <c r="D71" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E71" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F71">
         <v>2020</v>
@@ -6294,19 +6048,19 @@
     </row>
     <row r="72" spans="1:6">
       <c r="A72" t="s">
-        <v>60</v>
+        <v>34</v>
       </c>
       <c r="B72" t="s">
-        <v>63</v>
-      </c>
-      <c r="C72" t="s">
-        <v>107</v>
+        <v>37</v>
+      </c>
+      <c r="C72">
+        <v>-1336</v>
       </c>
       <c r="D72" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E72" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F72">
         <v>2020</v>
@@ -6314,19 +6068,19 @@
     </row>
     <row r="73" spans="1:6">
       <c r="A73" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B73" t="s">
-        <v>63</v>
-      </c>
-      <c r="C73" t="s">
-        <v>112</v>
+        <v>37</v>
+      </c>
+      <c r="C73">
+        <v>430161</v>
       </c>
       <c r="D73" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E73" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F73">
         <v>2020</v>
@@ -6334,16 +6088,19 @@
     </row>
     <row r="74" spans="1:6">
       <c r="A74" t="s">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="B74" t="s">
-        <v>67</v>
+        <v>41</v>
+      </c>
+      <c r="C74">
+        <v>0</v>
       </c>
       <c r="D74" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E74" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F74">
         <v>2020</v>
@@ -6351,19 +6108,19 @@
     </row>
     <row r="75" spans="1:6">
       <c r="A75" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B75" t="s">
-        <v>67</v>
-      </c>
-      <c r="C75" t="s">
-        <v>113</v>
+        <v>41</v>
+      </c>
+      <c r="C75">
+        <v>17531</v>
       </c>
       <c r="D75" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E75" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F75">
         <v>2020</v>
@@ -6371,19 +6128,19 @@
     </row>
     <row r="76" spans="1:6">
       <c r="A76" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="B76" t="s">
-        <v>67</v>
-      </c>
-      <c r="C76" t="s">
-        <v>114</v>
+        <v>41</v>
+      </c>
+      <c r="C76">
+        <v>3731</v>
       </c>
       <c r="D76" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E76" t="s">
-        <v>119</v>
+        <v>47</v>
       </c>
       <c r="F76">
         <v>2019</v>
@@ -6424,13 +6181,16 @@
     </row>
     <row r="2" spans="1:6">
       <c r="A2" t="s">
-        <v>120</v>
+        <v>48</v>
+      </c>
+      <c r="C2">
+        <v>0</v>
       </c>
       <c r="D2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E2" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F2">
         <v>2020</v>
@@ -6438,16 +6198,16 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" t="s">
-        <v>120</v>
-      </c>
-      <c r="C3" t="s">
-        <v>121</v>
+        <v>48</v>
+      </c>
+      <c r="C3">
+        <v>4000</v>
       </c>
       <c r="D3" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="F3">
         <v>2019</v>
